--- a/data/majors_info.xlsx
+++ b/data/majors_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C473986-B3D7-41AF-B3E9-BC157E43D71C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221740F3-8115-46D7-998B-C7C4E1168178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="417">
   <si>
     <t>전공명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1109,117 +1109,6 @@
   <si>
     <t>융합전공, 융합부전공, 연계전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식품품질관리 MD(식품영양학전공)</t>
-  </si>
-  <si>
-    <t>유전체 육종번식 MD(동물생명과학전공)</t>
-  </si>
-  <si>
-    <t>반려동물 MD(동물응용과학전공)</t>
-  </si>
-  <si>
-    <t>축산식품과 HACCP MD(동물응용과학전공)</t>
-  </si>
-  <si>
-    <t>생명공학연구실습 MD(응용생명공학전공)</t>
-  </si>
-  <si>
-    <t>인프라 재난방재 MD(토목공학전공)</t>
-  </si>
-  <si>
-    <t>바이오에너지 MD(환경공학전공)</t>
-  </si>
-  <si>
-    <t>산업보건 및 위생 MD(안전공학전공)</t>
-  </si>
-  <si>
-    <t>바이오에너지화공환경 MD(화학공학전공)</t>
-  </si>
-  <si>
-    <t>사물인터넷 MD(소프트웨어융합전공)</t>
-  </si>
-  <si>
-    <t>통신공학 MD(전자공학전공)</t>
-  </si>
-  <si>
-    <t>탄소중립 전기에너지 MD(전기공학전공)</t>
-  </si>
-  <si>
-    <t>브랜드 콘텐츠 MD(시각미디어디자인전공)</t>
-  </si>
-  <si>
-    <t>AI보안 MD(정보보안전공)</t>
-  </si>
-  <si>
-    <t>공공 PR MD(문예창작미디어콘텐츠홍보전공)</t>
-  </si>
-  <si>
-    <t>내러티브 디자인 MD(문예창작미디어콘텐츠홍보전공)</t>
-  </si>
-  <si>
-    <t>한영 언어 융합 MD(문예창작미디어콘텐츠홍보전공)</t>
-  </si>
-  <si>
-    <t>정부 및 공기업 재무회계 전문가 MD(행정학전공)</t>
-  </si>
-  <si>
-    <t>그로스마케터 과정 MD(경영학전공)</t>
-  </si>
-  <si>
-    <t>재무빅데이터분석 전문가 MD(경영학전공)</t>
-  </si>
-  <si>
-    <t>푸드콘텐츠기획자 MD(식품영양학전공)</t>
-  </si>
-  <si>
-    <t>식물원학 MD(식물생명환경전공)</t>
-  </si>
-  <si>
-    <t>바이오매스 MD(동물생명과학전공)</t>
-  </si>
-  <si>
-    <t>지역관광자원 활성화 MD(지역자원시스템공학전공)</t>
-  </si>
-  <si>
-    <t>AI 화학공학 MD(화학공학전공)</t>
-  </si>
-  <si>
-    <t>(화학)반도체 소재 MD(화학공학전공)</t>
-  </si>
-  <si>
-    <t>(ICT)반도체 부품장비 MD(ICT로봇공학전공)</t>
-  </si>
-  <si>
-    <t>(기계)반도체 부품장비 MD(기계공학전공)</t>
-  </si>
-  <si>
-    <t>(전자)반도체 공정 MD(전자공학전공)</t>
-  </si>
-  <si>
-    <t>(전기)반도체 부품장비 MD(전기공학전공)</t>
-  </si>
-  <si>
-    <t>(AI융합)반도체 소자 MD(AI융합학부 반도체융합전공)</t>
-  </si>
-  <si>
-    <t>(AI융합)반도체 설계 MD(AI융합학부 반도체융합전공)</t>
-  </si>
-  <si>
-    <t>컴퓨터음악 MD(실용음악학전공)</t>
-  </si>
-  <si>
-    <t>인공지능과 사회복지 MD(AI반도체융합전공)</t>
-  </si>
-  <si>
-    <t>3D 프린팅 디자이너 MD(제품공간디자인전공)</t>
-  </si>
-  <si>
-    <t>유니버설디자인 이노베이터 MD(제품공간디자인전공)</t>
-  </si>
-  <si>
-    <t>유아 교과 수업설계 MD(유아특수보육학전공)</t>
   </si>
   <si>
     <t>-</t>
@@ -2381,6 +2270,3824 @@
     <t>031-671-4830</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>식품품질관리 MD</t>
+  </si>
+  <si>
+    <t>유전체 육종번식 MD</t>
+  </si>
+  <si>
+    <t>반려동물 MD</t>
+  </si>
+  <si>
+    <t>축산식품과 HACCP MD</t>
+  </si>
+  <si>
+    <t>생명공학연구실습 MD</t>
+  </si>
+  <si>
+    <t>인프라 재난방재 MD</t>
+  </si>
+  <si>
+    <t>바이오에너지 MD</t>
+  </si>
+  <si>
+    <t>산업보건 및 위생 MD</t>
+  </si>
+  <si>
+    <t>바이오에너지화공환경 MD</t>
+  </si>
+  <si>
+    <t>사물인터넷 MD</t>
+  </si>
+  <si>
+    <t>통신공학 MD</t>
+  </si>
+  <si>
+    <t>탄소중립 전기에너지 MD</t>
+  </si>
+  <si>
+    <t>브랜드 콘텐츠 MD</t>
+  </si>
+  <si>
+    <t>AI보안 MD</t>
+  </si>
+  <si>
+    <t>공공 PR MD</t>
+  </si>
+  <si>
+    <t>내러티브 디자인 MD</t>
+  </si>
+  <si>
+    <t>한영 언어 융합 MD</t>
+  </si>
+  <si>
+    <t>정부 및 공기업 재무회계 전문가 MD</t>
+  </si>
+  <si>
+    <t>그로스마케터 과정 MD</t>
+  </si>
+  <si>
+    <t>재무빅데이터분석 전문가 MD</t>
+  </si>
+  <si>
+    <t>푸드콘텐츠기획자 MD</t>
+  </si>
+  <si>
+    <t>식물원학 MD</t>
+  </si>
+  <si>
+    <t>바이오매스 MD</t>
+  </si>
+  <si>
+    <t>지역관광자원 활성화 MD</t>
+  </si>
+  <si>
+    <t>AI 화학공학 MD</t>
+  </si>
+  <si>
+    <t>(화학)반도체 소재 MD</t>
+  </si>
+  <si>
+    <t>(ICT)반도체 부품장비 MD</t>
+  </si>
+  <si>
+    <t>(기계)반도체 부품장비 MD</t>
+  </si>
+  <si>
+    <t>(전자)반도체 공정 MD</t>
+  </si>
+  <si>
+    <t>(전기)반도체 부품장비 MD</t>
+  </si>
+  <si>
+    <t>(AI융합)반도체 소자 MD</t>
+  </si>
+  <si>
+    <t>인공지능과 사회복지 MD</t>
+  </si>
+  <si>
+    <t>3D 프린팅 디자이너 MD</t>
+  </si>
+  <si>
+    <t>유니버설디자인 이노베이터 MD</t>
+  </si>
+  <si>
+    <t>유아 교과 수업설계 MD</t>
+  </si>
+  <si>
+    <t>동물 유전체 정보 분석 전문가 양성, 동물 번식기술을 향상하여 우수한 새로운 가축 생산 전문가 양성, 동물의 발생 관련 내용을 충분히 습득하여 통합적으로 유전체와 육종 그리고 번식기술 습득자를 양성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">반려동물의 건강과 복지향상을 위한 전문 지식을 학습함으로써 전반적인 반려동물관리를 위한 전문 컨설턴트 양성, 반려동물 양육으로 인간의 복지향상을 위한 전문 인력양성 및 연구자 양성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>축산식품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> HACCP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이론에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>체계적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이해를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바탕으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>산업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>현장에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실질적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>활용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지식을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">습득, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">HACCP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>적용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>능력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>식품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>안전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>품질</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>향상에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기여할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실무</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>역량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>함양, 축산식품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위생</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>품질</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>유통과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관련된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>글로벌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>산업의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변화와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요구를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이해하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>반영한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>융합적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>능력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>배양, 실습과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이론을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연계한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>학습을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>축산식품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>분야의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>혁신적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기술을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>창출할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도전적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>육성</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구소 및 바이오산업분야 등 현장에서 바로 적응하여 활동할 수 있는 실무 인재 양성, 생명공학 학문을 깊이 파고들어 심도있는 연구를 진행할 수 있는 생명공학 전문가 양성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프라 구조물에서 발생할 수 있는 다양한 재난에 대한 방재 지식과 기술을 습득할 수 있도록 함, 급증하는 인프라 관련 재난의 종류와 원인을 체계적으로 이해하고, 이를 바탕으로 효과적인 설계 및 방재 공법을 학습할 수 있도록 함, 재난 발생 시 초기 대응부터 장기적인 복구 및 관리까지의 전 과정에서 활용할 수 있는 실무적인 지식과 기술을 배움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속가능한 에너지 개발과 환경 문제 해결을 목표로, 바이오 기반 에너지 생산 기술과 관련된 핵심 지식 제공, 바이오에너지 기술의 원리와 실제 적용 방안을 이해하고, 환경 친화적 에너지 전환의 기초 역량을 갖춘 인재 양성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업보건 지식 함양: 근로자의 건강 보호를 위한 보건학, 생리학, 독성학 등의 핵심 이론을 습득, 작업 위험성 평가 및 관리: 화학적, 물리적, 생물학적, 인간공학적 위험 요인 평가 및 관리 능력, 법적·윤리적 준수 능력: 산업보건 관련 법규 및 국제 기준에 대한 이해 및 실무 적용, 실무 중심의 문제 해결 능력 함양: 다양한 산업현장에서 발생할 수 있는 문제에 대한 예방 대책 수립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>화학공학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기반의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바이오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에너지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>환경에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전문성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>함양, 화학공학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기초</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>능력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문제해결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>역량을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>향상, 화학공학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>분야의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다양화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시대적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변화에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>적응</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>능력을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>발전</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물인터넷(IoT) 전공은 차세대 연결 기술과 지능형 시스템의 핵심 원리를 탐구하고 응용하는 데 초점을 둔다. 학생들은 데이터 통신, 모바일 프로그래밍, 딥러닝 등 현대 IoT의 필수 기술을 학습하며, 센서 네트워크, 클라우드 컴퓨팅, 데이터 분석 및 자동화의 통합 원리를 이해하게 된다. 이를 통하여 IoT 기술을 활용한 창의적 문제 해결 능력을 배양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>통신공학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이론을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기반으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>과학용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전자부품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시스템을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>연구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시험하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전문성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>함양, 기술적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>성능을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개선하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전자적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>특성의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>변형과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>응용에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>개발할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>자기성찰역량과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문제해결역량을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>함양, 통신공학</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>분야의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다양화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>글로벌화에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대처할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>역량을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>함양</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>탄소중립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전기에너지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전문지식과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>에너지의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>효율적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>운영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실무지식을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갖춘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>창의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>융합형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>양성, 탄소중립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전기에너지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>분야의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다양화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>글로벌화에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대처할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도전역량을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>갖춘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>양성</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 기술 습득: 학생들은 인공지능과 디자인의 융합을 통해 창의적이고 혁신적인 디자인 솔루션을 개발할 수 있는 능력을 갖춥니다, 창의적 창업 역량 강화: 창의창업스튜디오를 통해 학생들은 자신의 아이디어를 실제 브랜드 콘텐츠 사업으로 전환하는 방법을 배우고, 창업 과정의 모든 단계에서 필요한 실무적 지식과 경험을 쌓습니다. 이를 통해 학생들은 브랜드 콘텐츠 분야에서 창업가로서의 역량을 개발하고, 창의적이고 혁신적인 사업 아이디어를 현실화합니다, 브랜드 가치 창출 및 전달 능력 함양: 시각브랜드디자인 수업을 통해 학생들은 강력한 브랜드 아이덴티티와 시각적 스토리텔링을 통해 효과적인 브랜드 메시지를 전달하는 방법을 배웁니다. 이 과정은 브랜드 콘텐츠 분야에서 소비자와 강력한 연결을 구축하고 브랜드의 가치를 전달하는 데 필수적인 능력을 갖추도록 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능 관련 기초 지식을 바탕으로 인공지능과 보안이 결합되었을 때 나타나는 현상들과 영향들을 분석하여 실무에 적용할 수 있는 인공지능 보안의 전문 인재 양성을 목표로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오매스 신산업을 창출하고 주도할 수 있는 도전적인 리더형 전문인력 양성, 정책, 제도, 기술, 사회 통합적 접급을 위한 융합형 전문인력 양성, 바이오매스의 다양성과 현장의 기술 상황에 효과적으로 대응하는 현장형 전문인력 양성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친환경적 지역 부존자원의 활용과 공간을 관광자원으로 개발할 수 있는 창의적 설계역량 배양, 지역의 문화, 역사, 인프라 요소의 자원을 디지털 자원으로 변화시킬 수 있는 전문 역량 배양, 지역활성화와 지역 소통을 위하여 디지털 자원의 활용 지역경쟁력 제고역량 배양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계학습 및 인공지능 기법을 이용하여 데이터를 분석할 수 있고, 화학공학 분야에 접목할 수 있는 인재 양성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터음악 MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인용 컴퓨터 음악 제작 시스템을 구축할 수 있다, MIDI 녹음/편집과 가상악기를 활용하여 데모 수준의 음악을 제작할 수 있다, 오디오 녹음/편집과 가상 이펙터를 활용하여 믹싱, 마스터링을 통하여 완성도 높은 음악을 제작할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능과 빅데이터 처리를 위한 가장 기초언어인 파이썬 프로그램을 배우고, 인공지능 알고리즘을 이해하고,  통계적 자료분석의 원리와 방법에 관한 기초지식을 익히는데 교육목표을 둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인을 3D 기반으로 시각화하고 제품으로 구현할 수 있는 디지털 제작 역량 함양,  3D 프린팅 기술의 실무 적용 및 창의적 응용 능력 강화, 디자인 아이디어를 제품화, 시장화할 수 있는 브랜드 기획 및 창업 기초 역량 강화, 융합형 디자이너로서의 창의적 문제해결력과 실무 대응력 배양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니버설디자인의 이론과 사례에 대한 이해를 바탕으로 포용적 사고를 갖춘 창의적 인재 양성, 융합 프로젝트를 통해 실무 디자인 문제 해결 능력 강화, 디자인 결과물을 사회적 가치와 연계하여 발표 및 실현하는 실천적 리더 육성, 포트폴리오 중심의 산출물 기반 수업을 통해 진로 및 취업 경쟁력 제고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교과에 대한 이론적 이해 심화, 효과적인 수업 설계 역량 배양, 실제적 교수법 적용 능력 강화, 융합적이고 통합적인 사고 함양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AI융합)반도체 설계 MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체 소재부품장비(소부장)/설계 산업경쟁력 강화를 위해 산업체 재직자를 대상으로 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정, 장비, 소자, 회로 및 설계 분야의 전문 인재 양성을 목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>반도체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소재부품장비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소부장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>)/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>산업경쟁력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>강화를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>위해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>산업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>재직자를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>대상으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>산업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>기반의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전공트랙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>교육을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>반도체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>장비</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>소자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>분야의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>양성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>목표</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본 소단위 전공은 전자공학전공 4학년들을 대상으로 하며, 특히 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정 분야의 전문 인재 양성을 목표로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체 소재부품장비(소부장)/설계 산업경쟁력 강화를 위해 산업체 재직자를 대상으로 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정, 장비, 소자, 회로 및 공정진단 분야의 준문 인재 양성을 목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체 관련 소재 및 공정에 대한 개론적인 지식을 전달하는 한편, 실험 및 전산 모사 실습을 통한 균형 잡힌 전문가 양성을 목표, 반도체의 기본 배경지식, 반도체 산업 및 관련 산업에 사용되는 재료들의 특성에 대한 전문적 인력 양성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오매스, 에너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역, 문화, 인프라, 친환경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI, 화학공학, 기계학습, 인공지능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체, 소재, 화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체, ICT, 부품, 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체, 공정, 전자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회복지, 인공지능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육운영전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아, 교과, 수업설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이노베이터, 유니버설, 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자이너, 3D 프린팅, 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터음악, 음악, 오디오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체, 소자, 소부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체, 설계, 부품장비, 소부장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체, 부품장비, 소부장, 전기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체, 부품, 장비, 기계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품영양학전공</t>
+  </si>
+  <si>
+    <t>동물생명과학전공</t>
+  </si>
+  <si>
+    <t>동물응용과학전공</t>
+  </si>
+  <si>
+    <t>응용생명공학전공</t>
+  </si>
+  <si>
+    <t>토목공학전공</t>
+  </si>
+  <si>
+    <t>환경공학전공</t>
+  </si>
+  <si>
+    <t>안전공학전공</t>
+  </si>
+  <si>
+    <t>문예창작미디어콘텐츠홍보전공</t>
+  </si>
+  <si>
+    <t>행정학전공</t>
+  </si>
+  <si>
+    <t>경영학전공</t>
+  </si>
+  <si>
+    <t>식물생명환경전공</t>
+  </si>
+  <si>
+    <t>지역자원시스템공학전공</t>
+  </si>
+  <si>
+    <t>AI융합학부 반도체융합전공</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시각미디어디자인전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2494,53 +6201,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2823,10 +6533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6137"/>
+  <dimension ref="A1:H6137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2838,1996 +6548,2347 @@
     <col min="5" max="5" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="H1" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="H3" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="H4" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="H5" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="H6" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="H7" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="H8" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="H9" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="H10" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="H11" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="H12" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="H13" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="13" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="H14" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="13" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="H15" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="13" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="H16" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="13" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="H17" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="13" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="H18" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="13" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="H19" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="13" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="H20" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="13" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="H21" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="13" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+      <c r="H22" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="13" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="H23" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="13" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="H24" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="13" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="H25" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="H26" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="13" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="H27" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="H28" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="13" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="H29" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="13" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+      <c r="H30" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="F31" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="13" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="H31" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="F32" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="13" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="H32" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H46" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H47" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="54" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="94.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="81" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="54" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B73" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G77" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G79" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G80" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G81" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
       <c r="E89"/>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="E90"/>
       <c r="F90"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
       <c r="E91"/>
       <c r="F91"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
       <c r="E95"/>
       <c r="F95"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>

--- a/data/majors_info.xlsx
+++ b/data/majors_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221740F3-8115-46D7-998B-C7C4E1168178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116C808-AABB-4C1E-9D6E-03C7D40EB3A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$6137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6535,8 +6535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/majors_info.xlsx
+++ b/data/majors_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C2F88-CDF2-40F0-ABDA-51060F254E5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF71001-D4D6-4F23-9247-D58AC7430262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="434">
   <si>
     <t>전공명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,25 +162,7 @@
     <t>실용음악학전공</t>
   </si>
   <si>
-    <t>사회복지학전공</t>
-  </si>
-  <si>
-    <t>한국수어교육전공</t>
-  </si>
-  <si>
     <t>유아특수보육학전공</t>
-  </si>
-  <si>
-    <t>의료재활공학전공</t>
-  </si>
-  <si>
-    <t>공공행정전공</t>
-  </si>
-  <si>
-    <t>상담심리교육전공</t>
-  </si>
-  <si>
-    <t>특수체육학전공</t>
   </si>
   <si>
     <t>AI반도체융합전공</t>
@@ -958,23 +940,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인학관A동 513호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인학관B동 503호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인학관B동 604호</t>
-  </si>
-  <si>
-    <t>인학관B동 604호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인학관A동 616호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>031-610-4780</t>
@@ -6106,10 +6072,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>귀금속보석공예전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>농생명·바이오·식품 (Bio, Food &amp; Agriculture)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6136,6 +6098,70 @@
   <si>
     <t>농생명·바이오·식품 (Bio, Food &amp; Agriculture)
 생명공학, 식품 제조 및 품질 관리, 동식물 자원과 관련된 전공들입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공행정전공(평캠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평캠 인학관A동 513호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평캠 인학관B동 503호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평캠 인학관B동 604호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평캠 인학관A동 616호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보보안전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품공간디자인전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실용음악학전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀금속보석공예전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사회복지학전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국수어교육전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아특수보육학전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료재활공학전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담심리교육전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수체육학전공(평택)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI반도체융합전공(평택)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6588,9 +6614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6610,28 +6634,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -6639,28 +6663,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -6668,28 +6692,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -6697,28 +6721,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -6726,28 +6750,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -6755,28 +6779,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -6784,28 +6808,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -6813,28 +6837,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -6842,28 +6866,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -6871,28 +6895,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -6900,28 +6924,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -6929,28 +6953,28 @@
         <v>13</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -6958,28 +6982,28 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -6987,28 +7011,28 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -7016,28 +7040,28 @@
         <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -7045,28 +7069,28 @@
         <v>17</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -7074,28 +7098,28 @@
         <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -7103,28 +7127,28 @@
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -7132,28 +7156,28 @@
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -7161,28 +7185,28 @@
         <v>21</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -7190,28 +7214,28 @@
         <v>22</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G21" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>245</v>
-      </c>
       <c r="I21" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -7219,28 +7243,28 @@
         <v>23</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -7248,57 +7272,57 @@
         <v>24</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>25</v>
+        <v>423</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -7306,28 +7330,28 @@
         <v>26</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -7335,28 +7359,28 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -7364,28 +7388,28 @@
         <v>28</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -7393,28 +7417,28 @@
         <v>29</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -7422,28 +7446,28 @@
         <v>30</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -7451,28 +7475,28 @@
         <v>31</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -7480,28 +7504,28 @@
         <v>32</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -7509,823 +7533,823 @@
         <v>33</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>35</v>
+        <v>424</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>36</v>
+        <v>425</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I36" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>37</v>
+        <v>427</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>252</v>
+        <v>419</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>38</v>
+        <v>428</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>253</v>
+        <v>420</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>39</v>
+        <v>429</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>255</v>
+        <v>421</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>40</v>
+        <v>430</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>43</v>
+        <v>432</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I43" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="F44" s="12" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="81" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="81" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>22</v>
@@ -8333,28 +8357,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>24</v>
@@ -8362,28 +8386,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>29</v>
@@ -8391,28 +8415,28 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>30</v>
@@ -8420,28 +8444,28 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>34</v>
@@ -8449,28 +8473,28 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>25</v>
@@ -8478,318 +8502,318 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="108" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>22</v>
@@ -8797,28 +8821,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>22</v>
@@ -8826,28 +8850,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>27</v>
@@ -8855,28 +8879,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>28</v>
@@ -8884,28 +8908,28 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>29</v>
@@ -8913,28 +8937,28 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>30</v>
@@ -8942,86 +8966,86 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>36</v>
@@ -9029,57 +9053,57 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>35</v>
@@ -9087,28 +9111,28 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>35</v>
@@ -9116,31 +9140,31 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">

--- a/data/majors_info.xlsx
+++ b/data/majors_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\박준철\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF71001-D4D6-4F23-9247-D58AC7430262}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B6546-A79E-4790-BD90-D8A8E57382CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="433">
   <si>
     <t>전공명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6096,11 +6096,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>농생명·바이오·식품 (Bio, Food &amp; Agriculture)
-생명공학, 식품 제조 및 품질 관리, 동식물 자원과 관련된 전공들입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공공행정전공(평캠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6614,7 +6609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7298,7 +7295,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>241</v>
@@ -7588,7 +7585,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>223</v>
@@ -7617,7 +7614,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>227</v>
@@ -7646,7 +7643,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>230</v>
@@ -7675,7 +7672,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>253</v>
@@ -7696,7 +7693,7 @@
         <v>245</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I37" s="14" t="s">
         <v>404</v>
@@ -7704,7 +7701,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>255</v>
@@ -7725,7 +7722,7 @@
         <v>245</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I38" s="14" t="s">
         <v>404</v>
@@ -7733,7 +7730,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>257</v>
@@ -7754,7 +7751,7 @@
         <v>245</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I39" s="14" t="s">
         <v>404</v>
@@ -7762,7 +7759,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>259</v>
@@ -7783,7 +7780,7 @@
         <v>245</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I40" s="14" t="s">
         <v>404</v>
@@ -7791,7 +7788,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>262</v>
@@ -7820,7 +7817,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>266</v>
@@ -7849,7 +7846,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>269</v>
@@ -7878,7 +7875,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>275</v>
@@ -8703,7 +8700,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="108" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="54" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>333</v>
       </c>
@@ -8714,7 +8711,7 @@
         <v>309</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>4</v>

--- a/data/majors_info.xlsx
+++ b/data/majors_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6D4A8B-F6CE-4266-B7BA-05350A6FF7F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650E2FF-C629-4441-9227-18B6B8F9ACB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>전기공학전공</t>
-  </si>
-  <si>
-    <t>건축학전공</t>
   </si>
   <si>
     <t>건축공학전공</t>
@@ -6159,6 +6156,10 @@
     <t>AI반도체융합전공(평캠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>건축학전공(5년제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6609,9 +6610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6631,28 +6630,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -6660,28 +6659,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -6689,28 +6688,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>88</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -6718,28 +6717,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -6747,28 +6746,28 @@
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -6776,28 +6775,28 @@
         <v>7</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>105</v>
-      </c>
       <c r="D6" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -6805,28 +6804,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="I7" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -6834,28 +6833,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="D8" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -6863,28 +6862,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>122</v>
-      </c>
       <c r="D9" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -6892,28 +6891,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="H10" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -6921,28 +6920,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>130</v>
-      </c>
       <c r="I11" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -6950,28 +6949,28 @@
         <v>13</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>133</v>
-      </c>
       <c r="D12" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -6979,28 +6978,28 @@
         <v>14</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>137</v>
-      </c>
       <c r="D13" s="11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -7008,28 +7007,28 @@
         <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>143</v>
-      </c>
       <c r="I14" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -7037,28 +7036,28 @@
         <v>16</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="D15" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -7066,28 +7065,28 @@
         <v>17</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -7095,28 +7094,28 @@
         <v>18</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="D17" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -7124,28 +7123,28 @@
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>163</v>
-      </c>
       <c r="D18" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -7153,28 +7152,28 @@
         <v>20</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>159</v>
-      </c>
       <c r="D19" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -7182,28 +7181,28 @@
         <v>21</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>234</v>
-      </c>
       <c r="I20" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -7211,28 +7210,28 @@
         <v>22</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>237</v>
-      </c>
       <c r="D21" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -7240,28 +7239,28 @@
         <v>23</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H22" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>168</v>
-      </c>
       <c r="I22" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -7269,57 +7268,57 @@
         <v>24</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="D23" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -7327,28 +7326,28 @@
         <v>26</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>176</v>
-      </c>
       <c r="I25" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -7356,28 +7355,28 @@
         <v>27</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -7385,28 +7384,28 @@
         <v>28</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>183</v>
-      </c>
       <c r="D27" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -7414,28 +7413,28 @@
         <v>29</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>188</v>
-      </c>
       <c r="D28" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -7443,910 +7442,910 @@
         <v>30</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="D29" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="11" t="s">
-        <v>31</v>
+        <v>432</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="D30" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>222</v>
-      </c>
       <c r="I32" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>217</v>
-      </c>
       <c r="D33" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B34" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>224</v>
-      </c>
       <c r="D34" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="D36" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H36" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>232</v>
-      </c>
       <c r="I36" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>254</v>
-      </c>
       <c r="D37" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I37" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B38" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>256</v>
-      </c>
       <c r="D38" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>258</v>
-      </c>
       <c r="D39" s="11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I39" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>260</v>
-      </c>
       <c r="D40" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I40" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B41" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="D41" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="12" t="s">
+      <c r="G41" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>265</v>
-      </c>
       <c r="I41" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B42" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D42" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>268</v>
-      </c>
       <c r="I42" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>270</v>
-      </c>
       <c r="D43" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H43" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H43" s="13" t="s">
-        <v>273</v>
-      </c>
       <c r="I43" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B44" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C44" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C44" s="11" t="s">
-        <v>276</v>
-      </c>
       <c r="D44" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I45" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>200</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>204</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>205</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>206</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>207</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>208</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I49" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>209</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B51" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>211</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>212</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I51" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="96" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="80" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="80" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="96" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>22</v>
@@ -8354,28 +8353,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>24</v>
@@ -8383,28 +8382,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>29</v>
@@ -8412,28 +8411,28 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>30</v>
@@ -8441,57 +8440,57 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>25</v>
@@ -8499,318 +8498,318 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="48" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B70" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>303</v>
-      </c>
       <c r="D70" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="80" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C73" s="11" t="s">
-        <v>309</v>
-      </c>
       <c r="D73" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E73" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="112" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>22</v>
@@ -8818,28 +8817,28 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>22</v>
@@ -8847,28 +8846,28 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E78" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>27</v>
@@ -8876,28 +8875,28 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E79" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F79" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>28</v>
@@ -8905,28 +8904,28 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H80" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>29</v>
@@ -8934,28 +8933,28 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H81" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>30</v>
@@ -8963,205 +8962,205 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A82" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H82" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H83" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A84" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="C84" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H84" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A85" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H85" s="17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A86" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H86" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A87" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E87" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F87" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H87" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A88" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E88" s="10" t="s">
         <v>4</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.45">

--- a/data/majors_info.xlsx
+++ b/data/majors_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1650E2FF-C629-4441-9227-18B6B8F9ACB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FC81E6-6068-4D21-8150-BED1E5EB0877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="378">
   <si>
     <t>전공명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>제도유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소단위전공과정(마이크로디그리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -144,13 +140,13 @@
     <t>전기공학전공</t>
   </si>
   <si>
+    <t>건축학전공</t>
+  </si>
+  <si>
     <t>건축공학전공</t>
   </si>
   <si>
     <t>스포츠과학전공</t>
-  </si>
-  <si>
-    <t>시각미디어디자인전공</t>
   </si>
   <si>
     <t>제품공간디자인전공</t>
@@ -159,7 +155,25 @@
     <t>실용음악학전공</t>
   </si>
   <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>한국수어교육전공</t>
+  </si>
+  <si>
     <t>유아특수보육학전공</t>
+  </si>
+  <si>
+    <t>의료재활공학전공</t>
+  </si>
+  <si>
+    <t>공공행정전공</t>
+  </si>
+  <si>
+    <t>상담심리교육전공</t>
+  </si>
+  <si>
+    <t>특수체육학전공</t>
   </si>
   <si>
     <t>AI반도체융합전공</t>
@@ -279,27 +293,12 @@
     <t>031-670-5250</t>
   </si>
   <si>
-    <t>031-670-4860</t>
-  </si>
-  <si>
-    <t>031-670-4840</t>
-  </si>
-  <si>
-    <t>031-670-4961</t>
-  </si>
-  <si>
-    <t>031-670-4830</t>
-  </si>
-  <si>
     <t>031-670-5160</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>031-670-5350</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-670-5445</t>
   </si>
   <si>
     <t>031-670-5445</t>
@@ -329,52 +328,15 @@
   </si>
   <si>
     <t>인문사회관 317호</t>
-  </si>
-  <si>
-    <t>인문사회관 317호</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인문사회관 516호</t>
   </si>
   <si>
     <t>인문사회관 516호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI융합학부 스마트헬스케어융합전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI융합학부 AI스마트팜융합전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI융합학부 AI빅데이터융합전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI융합학부 공공헬스케어IT융합전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI융합학부 반도체융합전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI융합학부 스마트애그리푸드시스템전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI융합학부 탄소중립바이오시스템융합전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.hknu.ac.kr/kor/4487/subview.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인문사회관 216호</t>
   </si>
   <si>
     <t>인문사회관 216호</t>
@@ -447,9 +409,6 @@
   </si>
   <si>
     <t>자연과학관 501호</t>
-  </si>
-  <si>
-    <t>자연과학관 501호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,9 +430,6 @@
   <si>
     <t>https://www.hknu.ac.kr/sites/hkne/index.do#this</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제1농학관 208호</t>
   </si>
   <si>
     <t>제1농학관 208호</t>
@@ -505,9 +461,6 @@
   </si>
   <si>
     <t>축산기술지원센터(제2농학관) 402호</t>
-  </si>
-  <si>
-    <t>축산기술지원센터(제2농학관) 402호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -517,9 +470,6 @@
   <si>
     <t>동물성, 식품가공, 위생, 안전성, 사료가공, 반려동물</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축산기술지원센터(제2농학관) 403호</t>
   </si>
   <si>
     <t>축산기술지원센터(제2농학관) 403호</t>
@@ -551,9 +501,6 @@
   </si>
   <si>
     <t>축산기술지원센터(제2농학관) 409호</t>
-  </si>
-  <si>
-    <t>축산기술지원센터(제2농학관) 409호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -570,9 +517,6 @@
   </si>
   <si>
     <t>제3공학관 219호</t>
-  </si>
-  <si>
-    <t>제3공학관 219호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -582,9 +526,6 @@
   <si>
     <t>환경, 기후, 기후변화, 미세먼지, 자원, 친환경, 에너지</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제2공학관 409호</t>
   </si>
   <si>
     <t>제2공학관 409호</t>
@@ -604,9 +545,6 @@
   </si>
   <si>
     <t>제1농학관 101호</t>
-  </si>
-  <si>
-    <t>제1농학관 101호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,9 +554,6 @@
   <si>
     <t>안전, 건설, 제조, 산업, 안전관리자, 보건관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제3공학관 320호</t>
   </si>
   <si>
     <t>제3공학관 320호</t>
@@ -650,9 +585,6 @@
   </si>
   <si>
     <t>제2공학관 402호</t>
-  </si>
-  <si>
-    <t>제2공학관 402호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -681,9 +613,6 @@
   </si>
   <si>
     <t>제1공학관 222호</t>
-  </si>
-  <si>
-    <t>제1공학관 222호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -693,9 +622,6 @@
   <si>
     <t>기계, 고체역학, 동역학, 첨단기술, 자동차, 항공기, 자율, 모빌리티, 지능, 로봇, 헬스케어, 에너지, 소재</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기계공학관 101호</t>
   </si>
   <si>
     <t>기계공학관 101호</t>
@@ -811,9 +737,6 @@
   </si>
   <si>
     <t>대학본부 103호</t>
-  </si>
-  <si>
-    <t>대학본부 103호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -827,9 +750,6 @@
   <si>
     <t>시각, 미디어, 디지털, 아날로그, 디자이너</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제3공학관 611호</t>
   </si>
   <si>
     <t>제3공학관 611호</t>
@@ -857,17 +777,11 @@
   </si>
   <si>
     <t>평캠 창의관 311호</t>
-  </si>
-  <si>
-    <t>평캠 창의관 311호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>음악적 이해를 고루 갖춘 독창성과 창의력 있는 인재와 첨단기술을 이해하고, 음악적으로 활용 가능한 전문 인재 양성</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평캠 창의관 417호</t>
   </si>
   <si>
     <t>평캠 창의관 417호</t>
@@ -907,9 +821,6 @@
   </si>
   <si>
     <t>제1공학관 123호</t>
-  </si>
-  <si>
-    <t>제1공학관 123호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -920,9 +831,6 @@
     <t>컴퓨터, 네트워크, 프로그래밍 등 전공을 위한 기본 기술을 습득 하고, 정보시스템, 정보네트워크의 보안 관리, 해킹 및 대응방법 등
 정보보안 분야에 특성화된 실무처리능력을 배양하여 시스템 관리자, 시스템 개발자, 보안전문가, 보안사고분석 전문가 등을 양성</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평캠 인학관 303호</t>
   </si>
   <si>
     <t>평캠 인학관 303호</t>
@@ -937,7 +845,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>인학관A동 513호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인학관B동 503호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>인학관B동 604호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인학관A동 616호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>031-610-4780</t>
@@ -1061,9 +982,6 @@
   </si>
   <si>
     <t>평캠 인학관A동 322호</t>
-  </si>
-  <si>
-    <t>평캠 인학관A동 322호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1071,521 +989,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>031-671-4830</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유전체, 육종</t>
+    <t>시각미디어디자인전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반려, 동물</t>
+    <t>계열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>축산, HACCP</t>
+    <t>인문사회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생명, 연구</t>
+    <t>자연과학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인프라, 재난, 방재</t>
+    <t>공학</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바이오, 에너지</t>
+    <t>예체능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>산업보건, 위생</t>
+    <t>귀금속보석공예전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사물, 인터넷</t>
+    <t>스마트헬스케어융합전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>통신</t>
+    <t>융합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탄소, 중립, 전기, 에너지</t>
+    <t>AI스마트팜융합전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>브랜드, 콘텐츠</t>
+    <t>AI빅데이터융합전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AI, 보안</t>
+    <t>공공헬스케어IT융합전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공공, PR</t>
+    <t>반도체융합전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>디자인</t>
+    <t>스마트애그리푸드시스템전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>언어, 융합</t>
+    <t>탄소중립바이오시스템융합전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정부, 공기업, 재무, 회계, 전문가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무, 빅데이터, 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행정과 PR에 대한 이론적 지식과 실무 역량을 갖춘 공공PR 전문가 배출, 정부 및 공공기관, 공공PR 전문 영역에서 활약할 수 있는 홍보 전문 능력 함양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>문화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시장에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요구되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실무형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>양성, 이야기와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>조형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>매체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>간의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관계를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이해하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>바탕으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>매체에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>부합하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>창의적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>표현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>방식을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>습득함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도전적이고 창의적인 한영 언어 및 문학 전문 인재 양성을 통한 융합 교육 달성, 한국문학과 영미 언어의 능숙성을 겸비한 4차 산업시대의 글로벌 문화 인재 양성, 창의적 문학 감수성과 영미 언어 문화 역량을 지닌 출판 문화산업 전문가 양성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공부분과민간부문에대한 이론적 지식과회계 실무 역량을 갖춘 전문가 배출, 정부,공공기관 및 민간부문 영역에서 활약할 수 있는 회계 전문 능력 함양, 정부,공공기관및민간기업 회계관련 실무 기술 습득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마케팅 도메인 지식 습득을 통한 맥락적 역량을 기반으로 데이터 분석 기반 효율성 및 효과를 산출하는 전문성을 함양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그로스마케터, 마케팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회계, 재무, 데이터에 밝은 융합형 전문가 양성, 재무제표 및 재무정보를 파이썬 등 통계프로그램을 활용하여 분석하고 이를 활용한 경영전략을 마련할 수 있는 능력 배양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외식산업 분야의 전문 지식과 실무능력을 기본으로 푸드콘텐츠산업을 이끌 도전적 인재 양성, K-food의 세계화, 푸드테크 시대에 식품 영양·조리, 미디어·홍보 분야의 지식과 실무능력을 갖추고 관련 산업에서 활약할 수 있는 현장형, 글로벌 전문가 배출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식품, 품질, 식품안전, 평가, 식품품질</t>
+    <t>식품품질관리 MD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2215,133 +1683,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>식물원•생태원 조성의 사회적 수요애 부응하는 도전적인 전문가 양성, 환경생태·사회환경과 조화로운 식물원•생태원 조성에 필요한 식물환경조경 융합형 전문가 양성</t>
+    <t>유전체 육종번식 MD</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경, 생태, 사회환경, 식물원, 생태원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외식, 푸드, 콘텐츠, K-Food, 푸드테크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>031-671-4830</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식품품질관리 MD</t>
-  </si>
-  <si>
-    <t>유전체 육종번식 MD</t>
-  </si>
-  <si>
-    <t>반려동물 MD</t>
-  </si>
-  <si>
-    <t>축산식품과 HACCP MD</t>
-  </si>
-  <si>
-    <t>생명공학연구실습 MD</t>
-  </si>
-  <si>
-    <t>인프라 재난방재 MD</t>
-  </si>
-  <si>
-    <t>바이오에너지 MD</t>
-  </si>
-  <si>
-    <t>산업보건 및 위생 MD</t>
-  </si>
-  <si>
-    <t>바이오에너지화공환경 MD</t>
-  </si>
-  <si>
-    <t>사물인터넷 MD</t>
-  </si>
-  <si>
-    <t>통신공학 MD</t>
-  </si>
-  <si>
-    <t>탄소중립 전기에너지 MD</t>
-  </si>
-  <si>
-    <t>브랜드 콘텐츠 MD</t>
-  </si>
-  <si>
-    <t>AI보안 MD</t>
-  </si>
-  <si>
-    <t>공공 PR MD</t>
-  </si>
-  <si>
-    <t>내러티브 디자인 MD</t>
-  </si>
-  <si>
-    <t>한영 언어 융합 MD</t>
-  </si>
-  <si>
-    <t>정부 및 공기업 재무회계 전문가 MD</t>
-  </si>
-  <si>
-    <t>그로스마케터 과정 MD</t>
-  </si>
-  <si>
-    <t>재무빅데이터분석 전문가 MD</t>
-  </si>
-  <si>
-    <t>푸드콘텐츠기획자 MD</t>
-  </si>
-  <si>
-    <t>식물원학 MD</t>
-  </si>
-  <si>
-    <t>바이오매스 MD</t>
-  </si>
-  <si>
-    <t>지역관광자원 활성화 MD</t>
-  </si>
-  <si>
-    <t>AI 화학공학 MD</t>
-  </si>
-  <si>
-    <t>(화학)반도체 소재 MD</t>
-  </si>
-  <si>
-    <t>(ICT)반도체 부품장비 MD</t>
-  </si>
-  <si>
-    <t>(기계)반도체 부품장비 MD</t>
-  </si>
-  <si>
-    <t>(전자)반도체 공정 MD</t>
-  </si>
-  <si>
-    <t>(전기)반도체 부품장비 MD</t>
-  </si>
-  <si>
-    <t>(AI융합)반도체 소자 MD</t>
-  </si>
-  <si>
-    <t>인공지능과 사회복지 MD</t>
-  </si>
-  <si>
-    <t>3D 프린팅 디자이너 MD</t>
-  </si>
-  <si>
-    <t>유니버설디자인 이노베이터 MD</t>
-  </si>
-  <si>
-    <t>유아 교과 수업설계 MD</t>
   </si>
   <si>
     <t>동물 유전체 정보 분석 전문가 양성, 동물 번식기술을 향상하여 우수한 새로운 가축 생산 전문가 양성, 동물의 발생 관련 내용을 충분히 습득하여 통합적으로 유전체와 육종 그리고 번식기술 습득자를 양성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>반려동물 MD</t>
+  </si>
+  <si>
     <t xml:space="preserve">반려동물의 건강과 복지향상을 위한 전문 지식을 학습함으로써 전반적인 반려동물관리를 위한 전문 컨설턴트 양성, 반려동물 양육으로 인간의 복지향상을 위한 전문 인력양성 및 연구자 양성 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축산식품과 HACCP MD</t>
   </si>
   <si>
     <r>
@@ -3674,16 +3031,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>인프라 재난방재 MD</t>
+  </si>
+  <si>
     <t>인프라 구조물에서 발생할 수 있는 다양한 재난에 대한 방재 지식과 기술을 습득할 수 있도록 함, 급증하는 인프라 관련 재난의 종류와 원인을 체계적으로 이해하고, 이를 바탕으로 효과적인 설계 및 방재 공법을 학습할 수 있도록 함, 재난 발생 시 초기 대응부터 장기적인 복구 및 관리까지의 전 과정에서 활용할 수 있는 실무적인 지식과 기술을 배움</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오에너지 MD</t>
   </si>
   <si>
     <t>지속가능한 에너지 개발과 환경 문제 해결을 목표로, 바이오 기반 에너지 생산 기술과 관련된 핵심 지식 제공, 바이오에너지 기술의 원리와 실제 적용 방안을 이해하고, 환경 친화적 에너지 전환의 기초 역량을 갖춘 인재 양성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>산업보건 및 위생 MD</t>
+  </si>
+  <si>
     <t>산업보건 지식 함양: 근로자의 건강 보호를 위한 보건학, 생리학, 독성학 등의 핵심 이론을 습득, 작업 위험성 평가 및 관리: 화학적, 물리적, 생물학적, 인간공학적 위험 요인 평가 및 관리 능력, 법적·윤리적 준수 능력: 산업보건 관련 법규 및 국제 기준에 대한 이해 및 실무 적용, 실무 중심의 문제 해결 능력 함양: 다양한 산업현장에서 발생할 수 있는 문제에 대한 예방 대책 수립</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오에너지화공환경 MD</t>
   </si>
   <si>
     <r>
@@ -4132,8 +3501,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>사물인터넷 MD</t>
+  </si>
+  <si>
     <t>사물인터넷(IoT) 전공은 차세대 연결 기술과 지능형 시스템의 핵심 원리를 탐구하고 응용하는 데 초점을 둔다. 학생들은 데이터 통신, 모바일 프로그래밍, 딥러닝 등 현대 IoT의 필수 기술을 학습하며, 센서 네트워크, 클라우드 컴퓨팅, 데이터 분석 및 자동화의 통합 원리를 이해하게 된다. 이를 통하여 IoT 기술을 활용한 창의적 문제 해결 능력을 배양</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신공학 MD</t>
   </si>
   <si>
     <r>
@@ -4822,6 +4197,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>탄소중립 전기에너지 MD</t>
+  </si>
+  <si>
     <r>
       <t>탄소중립</t>
     </r>
@@ -5328,56 +4706,515 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>브랜드 콘텐츠 MD</t>
+  </si>
+  <si>
     <t>AI 기술 습득: 학생들은 인공지능과 디자인의 융합을 통해 창의적이고 혁신적인 디자인 솔루션을 개발할 수 있는 능력을 갖춥니다, 창의적 창업 역량 강화: 창의창업스튜디오를 통해 학생들은 자신의 아이디어를 실제 브랜드 콘텐츠 사업으로 전환하는 방법을 배우고, 창업 과정의 모든 단계에서 필요한 실무적 지식과 경험을 쌓습니다. 이를 통해 학생들은 브랜드 콘텐츠 분야에서 창업가로서의 역량을 개발하고, 창의적이고 혁신적인 사업 아이디어를 현실화합니다, 브랜드 가치 창출 및 전달 능력 함양: 시각브랜드디자인 수업을 통해 학생들은 강력한 브랜드 아이덴티티와 시각적 스토리텔링을 통해 효과적인 브랜드 메시지를 전달하는 방법을 배웁니다. 이 과정은 브랜드 콘텐츠 분야에서 소비자와 강력한 연결을 구축하고 브랜드의 가치를 전달하는 데 필수적인 능력을 갖추도록 합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI보안 MD</t>
   </si>
   <si>
     <t>인공지능 관련 기초 지식을 바탕으로 인공지능과 보안이 결합되었을 때 나타나는 현상들과 영향들을 분석하여 실무에 적용할 수 있는 인공지능 보안의 전문 인재 양성을 목표로 함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>공공 PR MD</t>
+  </si>
+  <si>
+    <t>행정과 PR에 대한 이론적 지식과 실무 역량을 갖춘 공공PR 전문가 배출, 정부 및 공공기관, 공공PR 전문 영역에서 활약할 수 있는 홍보 전문 능력 함양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내러티브 디자인 MD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>문화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시장에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>요구되는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>실무형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>양성, 이야기와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>조형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>매체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>간의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관계를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이해하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바탕으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>매체에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>부합하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>창의적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>표현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>방식을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>습득함</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한영 언어 융합 MD</t>
+  </si>
+  <si>
+    <t>도전적이고 창의적인 한영 언어 및 문학 전문 인재 양성을 통한 융합 교육 달성, 한국문학과 영미 언어의 능숙성을 겸비한 4차 산업시대의 글로벌 문화 인재 양성, 창의적 문학 감수성과 영미 언어 문화 역량을 지닌 출판 문화산업 전문가 양성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부 및 공기업 재무회계 전문가 MD</t>
+  </si>
+  <si>
+    <t>공공부분과민간부문에대한 이론적 지식과회계 실무 역량을 갖춘 전문가 배출, 정부,공공기관 및 민간부문 영역에서 활약할 수 있는 회계 전문 능력 함양, 정부,공공기관및민간기업 회계관련 실무 기술 습득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로스마케터 과정 MD</t>
+  </si>
+  <si>
+    <t>마케팅 도메인 지식 습득을 통한 맥락적 역량을 기반으로 데이터 분석 기반 효율성 및 효과를 산출하는 전문성을 함양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무빅데이터분석 전문가 MD</t>
+  </si>
+  <si>
+    <t>회계, 재무, 데이터에 밝은 융합형 전문가 양성, 재무제표 및 재무정보를 파이썬 등 통계프로그램을 활용하여 분석하고 이를 활용한 경영전략을 마련할 수 있는 능력 배양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸드콘텐츠기획자 MD</t>
+  </si>
+  <si>
+    <t>외식산업 분야의 전문 지식과 실무능력을 기본으로 푸드콘텐츠산업을 이끌 도전적 인재 양성, K-food의 세계화, 푸드테크 시대에 식품 영양·조리, 미디어·홍보 분야의 지식과 실무능력을 갖추고 관련 산업에서 활약할 수 있는 현장형, 글로벌 전문가 배출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물원학 MD</t>
+  </si>
+  <si>
+    <t>식물원•생태원 조성의 사회적 수요애 부응하는 도전적인 전문가 양성, 환경생태·사회환경과 조화로운 식물원•생태원 조성에 필요한 식물환경조경 융합형 전문가 양성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오매스 MD</t>
+  </si>
+  <si>
     <t>바이오매스 신산업을 창출하고 주도할 수 있는 도전적인 리더형 전문인력 양성, 정책, 제도, 기술, 사회 통합적 접급을 위한 융합형 전문인력 양성, 바이오매스의 다양성과 현장의 기술 상황에 효과적으로 대응하는 현장형 전문인력 양성</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역관광자원 활성화 MD</t>
   </si>
   <si>
     <t>친환경적 지역 부존자원의 활용과 공간을 관광자원으로 개발할 수 있는 창의적 설계역량 배양, 지역의 문화, 역사, 인프라 요소의 자원을 디지털 자원으로 변화시킬 수 있는 전문 역량 배양, 지역활성화와 지역 소통을 위하여 디지털 자원의 활용 지역경쟁력 제고역량 배양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>AI 화학공학 MD</t>
+  </si>
+  <si>
     <t>기계학습 및 인공지능 기법을 이용하여 데이터를 분석할 수 있고, 화학공학 분야에 접목할 수 있는 인재 양성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컴퓨터음악 MD</t>
+    <t>(화학)반도체 소재 MD</t>
+  </si>
+  <si>
+    <t>반도체 관련 소재 및 공정에 대한 개론적인 지식을 전달하는 한편, 실험 및 전산 모사 실습을 통한 균형 잡힌 전문가 양성을 목표, 반도체의 기본 배경지식, 반도체 산업 및 관련 산업에 사용되는 재료들의 특성에 대한 전문적 인력 양성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개인용 컴퓨터 음악 제작 시스템을 구축할 수 있다, MIDI 녹음/편집과 가상악기를 활용하여 데모 수준의 음악을 제작할 수 있다, 오디오 녹음/편집과 가상 이펙터를 활용하여 믹싱, 마스터링을 통하여 완성도 높은 음악을 제작할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인공지능과 빅데이터 처리를 위한 가장 기초언어인 파이썬 프로그램을 배우고, 인공지능 알고리즘을 이해하고,  통계적 자료분석의 원리와 방법에 관한 기초지식을 익히는데 교육목표을 둠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인을 3D 기반으로 시각화하고 제품으로 구현할 수 있는 디지털 제작 역량 함양,  3D 프린팅 기술의 실무 적용 및 창의적 응용 능력 강화, 디자인 아이디어를 제품화, 시장화할 수 있는 브랜드 기획 및 창업 기초 역량 강화, 융합형 디자이너로서의 창의적 문제해결력과 실무 대응력 배양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니버설디자인의 이론과 사례에 대한 이해를 바탕으로 포용적 사고를 갖춘 창의적 인재 양성, 융합 프로젝트를 통해 실무 디자인 문제 해결 능력 강화, 디자인 결과물을 사회적 가치와 연계하여 발표 및 실현하는 실천적 리더 육성, 포트폴리오 중심의 산출물 기반 수업을 통해 진로 및 취업 경쟁력 제고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교과에 대한 이론적 이해 심화, 효과적인 수업 설계 역량 배양, 실제적 교수법 적용 능력 강화, 융합적이고 통합적인 사고 함양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(AI융합)반도체 설계 MD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체 소재부품장비(소부장)/설계 산업경쟁력 강화를 위해 산업체 재직자를 대상으로 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정, 장비, 소자, 회로 및 설계 분야의 전문 인재 양성을 목표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(ICT)반도체 부품장비 MD</t>
   </si>
   <si>
     <r>
@@ -5926,15 +5763,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본 소단위 전공은 전자공학전공 4학년들을 대상으로 하며, 특히 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정 분야의 전문 인재 양성을 목표로 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(기계)반도체 부품장비 MD</t>
   </si>
   <si>
     <t>반도체 소재부품장비(소부장)/설계 산업경쟁력 강화를 위해 산업체 재직자를 대상으로 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정, 장비, 소자, 회로 및 공정진단 분야의 준문 인재 양성을 목표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반도체 관련 소재 및 공정에 대한 개론적인 지식을 전달하는 한편, 실험 및 전산 모사 실습을 통한 균형 잡힌 전문가 양성을 목표, 반도체의 기본 배경지식, 반도체 산업 및 관련 산업에 사용되는 재료들의 특성에 대한 전문적 인력 양성</t>
+    <t>(전자)반도체 공정 MD</t>
+  </si>
+  <si>
+    <t>본 소단위 전공은 전자공학전공 4학년들을 대상으로 하며, 특히 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정 분야의 전문 인재 양성을 목표로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전기)반도체 부품장비 MD</t>
+  </si>
+  <si>
+    <t>반도체 소재부품장비(소부장)/설계 산업경쟁력 강화를 위해 산업체 재직자를 대상으로 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정, 장비, 소자, 회로 및 설계 분야의 전문 인재 양성을 목표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(AI융합)반도체 소자 MD</t>
+  </si>
+  <si>
+    <t>(AI융합)반도체 설계 MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터음악 MD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인용 컴퓨터 음악 제작 시스템을 구축할 수 있다, MIDI 녹음/편집과 가상악기를 활용하여 데모 수준의 음악을 제작할 수 있다, 오디오 녹음/편집과 가상 이펙터를 활용하여 믹싱, 마스터링을 통하여 완성도 높은 음악을 제작할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능과 사회복지 MD</t>
+  </si>
+  <si>
+    <t>인공지능과 빅데이터 처리를 위한 가장 기초언어인 파이썬 프로그램을 배우고, 인공지능 알고리즘을 이해하고,  통계적 자료분석의 원리와 방법에 관한 기초지식을 익히는데 교육목표을 둠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D 프린팅 디자이너 MD</t>
+  </si>
+  <si>
+    <t>디자인을 3D 기반으로 시각화하고 제품으로 구현할 수 있는 디지털 제작 역량 함양,  3D 프린팅 기술의 실무 적용 및 창의적 응용 능력 강화, 디자인 아이디어를 제품화, 시장화할 수 있는 브랜드 기획 및 창업 기초 역량 강화, 융합형 디자이너로서의 창의적 문제해결력과 실무 대응력 배양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니버설디자인 이노베이터 MD</t>
+  </si>
+  <si>
+    <t>유니버설디자인의 이론과 사례에 대한 이해를 바탕으로 포용적 사고를 갖춘 창의적 인재 양성, 융합 프로젝트를 통해 실무 디자인 문제 해결 능력 강화, 디자인 결과물을 사회적 가치와 연계하여 발표 및 실현하는 실천적 리더 육성, 포트폴리오 중심의 산출물 기반 수업을 통해 진로 및 취업 경쟁력 제고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아 교과 수업설계 MD</t>
+  </si>
+  <si>
+    <t>교과에 대한 이론적 이해 심화, 효과적인 수업 설계 역량 배양, 실제적 교수법 적용 능력 강화, 융합적이고 통합적인 사고 함양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품, 품질, 식품안전, 평가, 식품품질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유전체, 육종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반려, 동물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축산, HACCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명, 연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프라, 재난, 방재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이오, 에너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업보건, 위생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사물, 인터넷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄소, 중립, 전기, 에너지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드, 콘텐츠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI, 보안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공, PR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어, 융합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정부, 공기업, 재무, 회계, 전문가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로스마케터, 마케팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무, 빅데이터, 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외식, 푸드, 콘텐츠, K-Food, 푸드테크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경, 생태, 사회환경, 식물원, 생태원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5958,31 +5931,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>반도체, 부품, 장비, 기계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>반도체, 공정, 전자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사회복지, 인공지능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육운영전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아, 교과, 수업설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이노베이터, 유니버설, 디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자이너, 3D 프린팅, 디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터음악, 음악, 오디오</t>
+    <t>반도체, 부품장비, 소부장, 전기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5994,170 +5951,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반도체, 부품장비, 소부장, 전기</t>
+    <t>컴퓨터음악, 음악, 오디오</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반도체, 부품, 장비, 기계</t>
+    <t>사회복지, 인공지능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>식품영양학전공</t>
-  </si>
-  <si>
-    <t>동물생명과학전공</t>
-  </si>
-  <si>
-    <t>동물응용과학전공</t>
-  </si>
-  <si>
-    <t>응용생명공학전공</t>
-  </si>
-  <si>
-    <t>토목공학전공</t>
-  </si>
-  <si>
-    <t>환경공학전공</t>
-  </si>
-  <si>
-    <t>안전공학전공</t>
-  </si>
-  <si>
-    <t>문예창작미디어콘텐츠홍보전공</t>
-  </si>
-  <si>
-    <t>행정학전공</t>
-  </si>
-  <si>
-    <t>경영학전공</t>
-  </si>
-  <si>
-    <t>식물생명환경전공</t>
-  </si>
-  <si>
-    <t>지역자원시스템공학전공</t>
-  </si>
-  <si>
-    <t>AI융합학부 반도체융합전공</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>디자이너, 3D 프린팅, 디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시각미디어디자인전공</t>
+    <t>이노베이터, 유니버설, 디자인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계열</t>
+    <t>유아, 교과, 수업설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인문사회</t>
+    <t>소단위전공과정, 마이크로디그리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자연과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예체능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농생명·바이오·식품 (Bio, Food &amp; Agriculture)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에너지·환경·안전 (Energy, Environment &amp; Safety)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI·반도체·IT (AI, Semiconductor &amp; IT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영·재무·마케팅 (Business, Finance &amp; Marketing)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인·문화·예술 (Design, Culture &amp; Arts)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인문·사회·교육 (Humanities, Social &amp; Education)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공행정전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평캠 인학관A동 513호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평캠 인학관B동 503호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평캠 인학관B동 604호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평캠 인학관A동 616호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보보안전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품공간디자인전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실용음악학전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀금속보석공예전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회복지학전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국수어교육전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아특수보육학전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>의료재활공학전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담심리교육전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특수체육학전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI반도체융합전공(평캠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건축학전공(5년제)</t>
+    <t>생명공학연구실습 MD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6273,7 +6091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6281,15 +6099,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -6312,20 +6121,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6608,9 +6408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6137"/>
+  <dimension ref="A1:H6100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6622,2548 +6424,1964 @@
     <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="29.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>38</v>
+      <c r="B1" s="7" t="s">
+        <v>43</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>39</v>
+      <c r="C1" s="7" t="s">
+        <v>44</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>405</v>
+      <c r="D1" s="7" t="s">
+        <v>255</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B42" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="B43" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>381</v>
+      <c r="B44" s="8" t="s">
+        <v>249</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
+      <c r="C44" s="8" t="s">
+        <v>250</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>111</v>
+      <c r="D44" s="8" t="s">
+        <v>258</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E44" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>99</v>
+      <c r="F44" s="9" t="s">
+        <v>253</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>102</v>
+      <c r="G44" s="4" t="s">
+        <v>248</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>403</v>
+      <c r="H44" s="10" t="s">
+        <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="11" t="s">
-        <v>8</v>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>261</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>112</v>
+      <c r="B45" s="8" t="s">
+        <v>178</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>113</v>
+      <c r="C45" s="8" t="s">
+        <v>179</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>407</v>
+      <c r="D45" s="8" t="s">
+        <v>262</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>43</v>
+      <c r="E45" s="8" t="s">
+        <v>252</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>49</v>
+      <c r="F45" s="9" t="s">
+        <v>81</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" s="13" t="s">
+      <c r="G45" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="14" t="s">
-        <v>403</v>
+      <c r="H45" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" s="11" t="s">
-        <v>27</v>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="8" t="s">
+        <v>263</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B46" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>178</v>
+      <c r="D46" s="8" t="s">
+        <v>262</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>408</v>
+      <c r="E46" s="8" t="s">
+        <v>252</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>43</v>
+      <c r="F46" s="9" t="s">
+        <v>81</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>66</v>
+      <c r="G46" s="4" t="s">
+        <v>175</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>176</v>
+      <c r="H46" s="10" t="s">
+        <v>190</v>
       </c>
-      <c r="H26" s="13" t="s">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="I26" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="C47" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="D47" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>408</v>
+      <c r="C48" s="8" t="s">
+        <v>183</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>43</v>
+      <c r="D48" s="8" t="s">
+        <v>262</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>67</v>
+      <c r="E48" s="8" t="s">
+        <v>252</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>176</v>
+      <c r="F48" s="9" t="s">
+        <v>81</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="G48" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>403</v>
+      <c r="C49" s="8" t="s">
+        <v>185</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" s="11" t="s">
-        <v>29</v>
+      <c r="D49" s="8" t="s">
+        <v>262</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="E49" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C50" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>408</v>
+      <c r="D50" s="8" t="s">
+        <v>262</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>43</v>
+      <c r="E50" s="8" t="s">
+        <v>252</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>68</v>
+      <c r="F50" s="9" t="s">
+        <v>81</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>185</v>
+      <c r="G50" s="4" t="s">
+        <v>175</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>180</v>
+      <c r="H50" s="10" t="s">
+        <v>190</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>403</v>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="8" t="s">
+        <v>268</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="B51" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C51" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>408</v>
+      <c r="D51" s="8" t="s">
+        <v>262</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>43</v>
+      <c r="E51" s="8" t="s">
+        <v>252</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>69</v>
+      <c r="F51" s="9" t="s">
+        <v>81</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>185</v>
+      <c r="G51" s="4" t="s">
+        <v>175</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="H51" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>194</v>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="12" t="s">
+        <v>269</v>
       </c>
-      <c r="I30" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A33" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A34" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A36" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="I36" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A37" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A39" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A40" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A42" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="12" t="s">
+      <c r="B52" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>260</v>
+      <c r="C52" s="8" t="s">
+        <v>340</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>267</v>
+      <c r="D52" s="8"/>
+      <c r="E52" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A43" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="12" t="s">
+      <c r="F52"/>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H43" s="13" t="s">
+      <c r="B53" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="I43" s="14" t="s">
-        <v>403</v>
+      <c r="C53" s="8" t="s">
+        <v>341</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44" s="11" t="s">
-        <v>431</v>
+      <c r="D53" s="8"/>
+      <c r="E53" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="F53"/>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C54" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>408</v>
+      <c r="B55" s="3" t="s">
+        <v>276</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>43</v>
+      <c r="C55" s="8" t="s">
+        <v>343</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>310</v>
+      <c r="D55" s="8"/>
+      <c r="E55" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>273</v>
+      <c r="F55"/>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="12" t="s">
+        <v>377</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="B56" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="I44" s="14" t="s">
-        <v>403</v>
+      <c r="C56" s="8" t="s">
+        <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A45" s="11" t="s">
-        <v>92</v>
+      <c r="D56" s="8"/>
+      <c r="E56" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
+      <c r="F56"/>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I45" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A46" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H47" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I47" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A48" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H48" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A49" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A50" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A51" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="96" x14ac:dyDescent="0.45">
-      <c r="A52" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H52" s="17" t="s">
-        <v>118</v>
+      <c r="C57" s="8" t="s">
+        <v>345</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>390</v>
+      <c r="D57" s="8"/>
+      <c r="E57" s="7" t="s">
+        <v>376</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="80" x14ac:dyDescent="0.45">
-      <c r="A53" s="5" t="s">
-        <v>312</v>
+      <c r="F57"/>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="12" t="s">
+        <v>280</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B58" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>280</v>
+      <c r="D58" s="8"/>
+      <c r="E58" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>410</v>
+      <c r="F58"/>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="12" t="s">
+        <v>282</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>4</v>
+      <c r="B59" s="3" t="s">
+        <v>283</v>
       </c>
-      <c r="F53" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="80" x14ac:dyDescent="0.45">
-      <c r="A54" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="C59" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C54" s="11" t="s">
-        <v>281</v>
+      <c r="D59" s="8"/>
+      <c r="E59" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>410</v>
+      <c r="F59"/>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="12" t="s">
+        <v>284</v>
       </c>
-      <c r="E54" s="10" t="s">
-        <v>4</v>
+      <c r="B60" s="3" t="s">
+        <v>285</v>
       </c>
-      <c r="F54" s="16" t="s">
-        <v>55</v>
+      <c r="C60" s="8" t="s">
+        <v>346</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>279</v>
+      <c r="D60" s="8"/>
+      <c r="E60" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>137</v>
+      <c r="F60"/>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="12" t="s">
+        <v>286</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>392</v>
+      <c r="B61" s="3" t="s">
+        <v>287</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A55" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="C61" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>282</v>
+      <c r="D61" s="8"/>
+      <c r="E61" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>410</v>
+      <c r="F61"/>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="12" t="s">
+        <v>288</v>
       </c>
-      <c r="E55" s="10" t="s">
-        <v>4</v>
+      <c r="B62" s="3" t="s">
+        <v>289</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A56" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="C62" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>283</v>
+      <c r="D62" s="8"/>
+      <c r="E62" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>410</v>
+      <c r="F62"/>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="12" t="s">
+        <v>290</v>
       </c>
-      <c r="E56" s="10" t="s">
-        <v>4</v>
+      <c r="B63" s="3" t="s">
+        <v>291</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A57" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="C63" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C57" s="11" t="s">
-        <v>284</v>
+      <c r="D63" s="8"/>
+      <c r="E63" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>411</v>
+      <c r="F63"/>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="12" t="s">
+        <v>292</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>4</v>
+      <c r="B64" s="3" t="s">
+        <v>293</v>
       </c>
-      <c r="F57" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="96" x14ac:dyDescent="0.45">
-      <c r="A58" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="C64" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>285</v>
+      <c r="D64" s="8"/>
+      <c r="E64" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>411</v>
+      <c r="F64"/>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" s="12" t="s">
+        <v>294</v>
       </c>
-      <c r="E58" s="10" t="s">
-        <v>4</v>
+      <c r="B65" s="3" t="s">
+        <v>295</v>
       </c>
-      <c r="F58" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="C65" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>286</v>
+      <c r="D65" s="8"/>
+      <c r="E65" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="D59" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A61" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A63" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A65" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
-        <v>325</v>
+      <c r="F65"/>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" s="12" t="s">
+        <v>296</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C66" s="11" t="s">
-        <v>292</v>
+      <c r="C66" s="8" t="s">
+        <v>353</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>415</v>
+      <c r="D66" s="8"/>
+      <c r="E66" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="E66" s="10" t="s">
-        <v>4</v>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" s="12" t="s">
+        <v>298</v>
       </c>
-      <c r="F66" s="16" t="s">
-        <v>46</v>
+      <c r="B67" s="3" t="s">
+        <v>299</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>279</v>
+      <c r="C67" s="8" t="s">
+        <v>354</v>
       </c>
-      <c r="H66" s="17" t="s">
-        <v>90</v>
+      <c r="D67" s="8"/>
+      <c r="E67" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>397</v>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" s="12" t="s">
+        <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A67" s="5" t="s">
+      <c r="B68" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>299</v>
+      <c r="C81" s="8" t="s">
+        <v>368</v>
       </c>
-      <c r="C68" s="11" t="s">
-        <v>294</v>
+      <c r="D81" s="8"/>
+      <c r="E81" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A69" s="5" t="s">
+      <c r="F81"/>
+      <c r="G81"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>300</v>
+      <c r="B82" s="3" t="s">
+        <v>327</v>
       </c>
-      <c r="C69" s="11" t="s">
-        <v>295</v>
+      <c r="C82" s="8" t="s">
+        <v>369</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>413</v>
+      <c r="D82" s="8"/>
+      <c r="E82" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="48" x14ac:dyDescent="0.45">
-      <c r="A70" s="5" t="s">
+      <c r="F82"/>
+      <c r="G82"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>301</v>
+      <c r="B83" s="3" t="s">
+        <v>321</v>
       </c>
-      <c r="C70" s="11" t="s">
-        <v>302</v>
+      <c r="C83" s="8" t="s">
+        <v>370</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>413</v>
+      <c r="D83" s="8"/>
+      <c r="E83" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A71" s="5" t="s">
+      <c r="F83"/>
+      <c r="G83"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A72" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>304</v>
+      <c r="C84" s="8" t="s">
+        <v>371</v>
       </c>
-      <c r="C72" s="11" t="s">
-        <v>309</v>
+      <c r="D84" s="8"/>
+      <c r="E84" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="80" x14ac:dyDescent="0.45">
-      <c r="A73" s="5" t="s">
+      <c r="F84"/>
+      <c r="G84"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A74" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>359</v>
+      <c r="C85" s="8" t="s">
+        <v>372</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="D85" s="8"/>
+      <c r="E85" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>411</v>
+      <c r="D87" s="8"/>
+      <c r="E87" s="7" t="s">
+        <v>376</v>
       </c>
-      <c r="E74" s="10" t="s">
-        <v>4</v>
+      <c r="F87"/>
+      <c r="G87"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" s="12" t="s">
+        <v>338</v>
       </c>
-      <c r="F74" s="16" t="s">
-        <v>54</v>
+      <c r="B88" s="3" t="s">
+        <v>339</v>
       </c>
-      <c r="G74" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="112" x14ac:dyDescent="0.45">
-      <c r="A75" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="C88" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D75" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A76" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C76" s="11" t="s">
+      <c r="D88" s="8"/>
+      <c r="E88" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A77" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A78" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A79" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A80" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A81" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C81" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A82" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A83" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C83" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A84" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="I84" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A85" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A86" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A87" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="E87" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A88" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="E88" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H88" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F88"/>
+      <c r="G88"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -9171,7 +8389,7 @@
       <c r="F89"/>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -9179,7 +8397,7 @@
       <c r="F90"/>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -9187,7 +8405,7 @@
       <c r="F91"/>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -9195,7 +8413,7 @@
       <c r="F92"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -9203,7 +8421,7 @@
       <c r="F93"/>
       <c r="G93"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -9211,7 +8429,7 @@
       <c r="F94"/>
       <c r="G94"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -9219,7 +8437,7 @@
       <c r="F95"/>
       <c r="G95"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -57258,302 +56476,6 @@
       <c r="D6100"/>
       <c r="F6100"/>
       <c r="G6100"/>
-    </row>
-    <row r="6101" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6101"/>
-      <c r="B6101"/>
-      <c r="C6101"/>
-      <c r="D6101"/>
-      <c r="F6101"/>
-      <c r="G6101"/>
-    </row>
-    <row r="6102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6102"/>
-      <c r="B6102"/>
-      <c r="C6102"/>
-      <c r="D6102"/>
-      <c r="F6102"/>
-      <c r="G6102"/>
-    </row>
-    <row r="6103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6103"/>
-      <c r="B6103"/>
-      <c r="C6103"/>
-      <c r="D6103"/>
-      <c r="F6103"/>
-      <c r="G6103"/>
-    </row>
-    <row r="6104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6104"/>
-      <c r="B6104"/>
-      <c r="C6104"/>
-      <c r="D6104"/>
-      <c r="F6104"/>
-      <c r="G6104"/>
-    </row>
-    <row r="6105" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6105"/>
-      <c r="B6105"/>
-      <c r="C6105"/>
-      <c r="D6105"/>
-      <c r="F6105"/>
-      <c r="G6105"/>
-    </row>
-    <row r="6106" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6106"/>
-      <c r="B6106"/>
-      <c r="C6106"/>
-      <c r="D6106"/>
-      <c r="F6106"/>
-      <c r="G6106"/>
-    </row>
-    <row r="6107" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6107"/>
-      <c r="B6107"/>
-      <c r="C6107"/>
-      <c r="D6107"/>
-      <c r="F6107"/>
-      <c r="G6107"/>
-    </row>
-    <row r="6108" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6108"/>
-      <c r="B6108"/>
-      <c r="C6108"/>
-      <c r="D6108"/>
-      <c r="F6108"/>
-      <c r="G6108"/>
-    </row>
-    <row r="6109" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6109"/>
-      <c r="B6109"/>
-      <c r="C6109"/>
-      <c r="D6109"/>
-      <c r="F6109"/>
-      <c r="G6109"/>
-    </row>
-    <row r="6110" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6110"/>
-      <c r="B6110"/>
-      <c r="C6110"/>
-      <c r="D6110"/>
-      <c r="F6110"/>
-      <c r="G6110"/>
-    </row>
-    <row r="6111" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6111"/>
-      <c r="B6111"/>
-      <c r="C6111"/>
-      <c r="D6111"/>
-      <c r="F6111"/>
-      <c r="G6111"/>
-    </row>
-    <row r="6112" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6112"/>
-      <c r="B6112"/>
-      <c r="C6112"/>
-      <c r="D6112"/>
-      <c r="F6112"/>
-      <c r="G6112"/>
-    </row>
-    <row r="6113" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6113"/>
-      <c r="B6113"/>
-      <c r="C6113"/>
-      <c r="D6113"/>
-      <c r="F6113"/>
-      <c r="G6113"/>
-    </row>
-    <row r="6114" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6114"/>
-      <c r="B6114"/>
-      <c r="C6114"/>
-      <c r="D6114"/>
-      <c r="F6114"/>
-      <c r="G6114"/>
-    </row>
-    <row r="6115" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6115"/>
-      <c r="B6115"/>
-      <c r="C6115"/>
-      <c r="D6115"/>
-      <c r="F6115"/>
-      <c r="G6115"/>
-    </row>
-    <row r="6116" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6116"/>
-      <c r="B6116"/>
-      <c r="C6116"/>
-      <c r="D6116"/>
-      <c r="F6116"/>
-      <c r="G6116"/>
-    </row>
-    <row r="6117" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6117"/>
-      <c r="B6117"/>
-      <c r="C6117"/>
-      <c r="D6117"/>
-      <c r="F6117"/>
-      <c r="G6117"/>
-    </row>
-    <row r="6118" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6118"/>
-      <c r="B6118"/>
-      <c r="C6118"/>
-      <c r="D6118"/>
-      <c r="F6118"/>
-      <c r="G6118"/>
-    </row>
-    <row r="6119" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6119"/>
-      <c r="B6119"/>
-      <c r="C6119"/>
-      <c r="D6119"/>
-      <c r="F6119"/>
-      <c r="G6119"/>
-    </row>
-    <row r="6120" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6120"/>
-      <c r="B6120"/>
-      <c r="C6120"/>
-      <c r="D6120"/>
-      <c r="F6120"/>
-      <c r="G6120"/>
-    </row>
-    <row r="6121" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6121"/>
-      <c r="B6121"/>
-      <c r="C6121"/>
-      <c r="D6121"/>
-      <c r="F6121"/>
-      <c r="G6121"/>
-    </row>
-    <row r="6122" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6122"/>
-      <c r="B6122"/>
-      <c r="C6122"/>
-      <c r="D6122"/>
-      <c r="F6122"/>
-      <c r="G6122"/>
-    </row>
-    <row r="6123" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6123"/>
-      <c r="B6123"/>
-      <c r="C6123"/>
-      <c r="D6123"/>
-      <c r="F6123"/>
-      <c r="G6123"/>
-    </row>
-    <row r="6124" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6124"/>
-      <c r="B6124"/>
-      <c r="C6124"/>
-      <c r="D6124"/>
-      <c r="F6124"/>
-      <c r="G6124"/>
-    </row>
-    <row r="6125" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6125"/>
-      <c r="B6125"/>
-      <c r="C6125"/>
-      <c r="D6125"/>
-      <c r="F6125"/>
-      <c r="G6125"/>
-    </row>
-    <row r="6126" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6126"/>
-      <c r="B6126"/>
-      <c r="C6126"/>
-      <c r="D6126"/>
-      <c r="F6126"/>
-      <c r="G6126"/>
-    </row>
-    <row r="6127" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6127"/>
-      <c r="B6127"/>
-      <c r="C6127"/>
-      <c r="D6127"/>
-      <c r="F6127"/>
-      <c r="G6127"/>
-    </row>
-    <row r="6128" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6128"/>
-      <c r="B6128"/>
-      <c r="C6128"/>
-      <c r="D6128"/>
-      <c r="F6128"/>
-      <c r="G6128"/>
-    </row>
-    <row r="6129" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6129"/>
-      <c r="B6129"/>
-      <c r="C6129"/>
-      <c r="D6129"/>
-      <c r="F6129"/>
-      <c r="G6129"/>
-    </row>
-    <row r="6130" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6130"/>
-      <c r="B6130"/>
-      <c r="C6130"/>
-      <c r="D6130"/>
-      <c r="F6130"/>
-      <c r="G6130"/>
-    </row>
-    <row r="6131" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6131"/>
-      <c r="B6131"/>
-      <c r="C6131"/>
-      <c r="D6131"/>
-      <c r="F6131"/>
-      <c r="G6131"/>
-    </row>
-    <row r="6132" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6132"/>
-      <c r="B6132"/>
-      <c r="C6132"/>
-      <c r="D6132"/>
-      <c r="F6132"/>
-      <c r="G6132"/>
-    </row>
-    <row r="6133" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6133"/>
-      <c r="B6133"/>
-      <c r="C6133"/>
-      <c r="D6133"/>
-      <c r="F6133"/>
-      <c r="G6133"/>
-    </row>
-    <row r="6134" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6134"/>
-      <c r="B6134"/>
-      <c r="C6134"/>
-      <c r="D6134"/>
-      <c r="F6134"/>
-      <c r="G6134"/>
-    </row>
-    <row r="6135" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6135"/>
-      <c r="B6135"/>
-      <c r="C6135"/>
-      <c r="D6135"/>
-      <c r="F6135"/>
-      <c r="G6135"/>
-    </row>
-    <row r="6136" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6136"/>
-      <c r="B6136"/>
-      <c r="C6136"/>
-      <c r="D6136"/>
-      <c r="F6136"/>
-      <c r="G6136"/>
-    </row>
-    <row r="6137" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6137"/>
-      <c r="B6137"/>
-      <c r="C6137"/>
-      <c r="D6137"/>
-      <c r="F6137"/>
-      <c r="G6137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/majors_info.xlsx
+++ b/data/majors_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FC81E6-6068-4D21-8150-BED1E5EB0877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FF580-62B9-415A-B490-6C81AA9AD2C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="269">
   <si>
     <t>전공명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,9 +122,6 @@
     <t>소프트웨어융합전공</t>
   </si>
   <si>
-    <t>정보보안전공</t>
-  </si>
-  <si>
     <t>응용수학전공</t>
   </si>
   <si>
@@ -147,36 +144,6 @@
   </si>
   <si>
     <t>스포츠과학전공</t>
-  </si>
-  <si>
-    <t>제품공간디자인전공</t>
-  </si>
-  <si>
-    <t>실용음악학전공</t>
-  </si>
-  <si>
-    <t>사회복지학전공</t>
-  </si>
-  <si>
-    <t>한국수어교육전공</t>
-  </si>
-  <si>
-    <t>유아특수보육학전공</t>
-  </si>
-  <si>
-    <t>의료재활공학전공</t>
-  </si>
-  <si>
-    <t>공공행정전공</t>
-  </si>
-  <si>
-    <t>상담심리교육전공</t>
-  </si>
-  <si>
-    <t>특수체육학전공</t>
-  </si>
-  <si>
-    <t>AI반도체융합전공</t>
   </si>
   <si>
     <t>전공설명</t>
@@ -1001,31 +968,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인문사회</t>
+    <t>제품공간디자인전공(평캠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자연과학</t>
+    <t>실용음악학전공(평캠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공학</t>
+    <t>귀금속보석공예전공(평캠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>예체능</t>
+    <t>사회복지학전공(평캠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>귀금속보석공예전공</t>
+    <t>한국수어교육전공(평캠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아특수보육학전공(평캠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료재활공학전공(평캠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공행정전공(평캠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담심리교육전공(평캠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수체육학전공(평캠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI반도체융합전공(평캠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보보안전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>스마트헬스케어융합전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>융합</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1053,4929 +1044,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>식품품질관리 MD</t>
+    <t>융합전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>식품품질관리에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>특화된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>업무를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수행하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>품질</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>문제를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해결할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>양성, 식품산업체에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>식품의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>안전위해요소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>중점관리점을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>결정할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>양성, 식품의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>품질평가를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>검사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>분석법을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실무에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>활용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>적용할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>양성</t>
-    </r>
+    <t>예체능 계열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유전체 육종번식 MD</t>
+    <t>인문사회 계열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동물 유전체 정보 분석 전문가 양성, 동물 번식기술을 향상하여 우수한 새로운 가축 생산 전문가 양성, 동물의 발생 관련 내용을 충분히 습득하여 통합적으로 유전체와 육종 그리고 번식기술 습득자를 양성</t>
+    <t>자연과학 계열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반려동물 MD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">반려동물의 건강과 복지향상을 위한 전문 지식을 학습함으로써 전반적인 반려동물관리를 위한 전문 컨설턴트 양성, 반려동물 양육으로 인간의 복지향상을 위한 전문 인력양성 및 연구자 양성 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축산식품과 HACCP MD</t>
-  </si>
-  <si>
-    <r>
-      <t>축산식품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가공</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> HACCP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이론에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>체계적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이해를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>바탕으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>산업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>현장에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실질적으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>활용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>지식을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">습득, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">HACCP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>적용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>능력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>통해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>식품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>안전</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>품질</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>향상에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기여할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실무</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>역량</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>함양, 축산식품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>위생</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>품질</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>유통과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관련된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>글로벌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>산업의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>변화와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요구를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이해하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>반영한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>융합적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>문제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해결</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>능력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>배양, 실습과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이론을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>연계한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>학습을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>통해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>축산식품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>분야의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>새로운</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>혁신적인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기술을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>창출할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>도전적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>육성</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연구소 및 바이오산업분야 등 현장에서 바로 적응하여 활동할 수 있는 실무 인재 양성, 생명공학 학문을 깊이 파고들어 심도있는 연구를 진행할 수 있는 생명공학 전문가 양성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인프라 재난방재 MD</t>
-  </si>
-  <si>
-    <t>인프라 구조물에서 발생할 수 있는 다양한 재난에 대한 방재 지식과 기술을 습득할 수 있도록 함, 급증하는 인프라 관련 재난의 종류와 원인을 체계적으로 이해하고, 이를 바탕으로 효과적인 설계 및 방재 공법을 학습할 수 있도록 함, 재난 발생 시 초기 대응부터 장기적인 복구 및 관리까지의 전 과정에서 활용할 수 있는 실무적인 지식과 기술을 배움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이오에너지 MD</t>
-  </si>
-  <si>
-    <t>지속가능한 에너지 개발과 환경 문제 해결을 목표로, 바이오 기반 에너지 생산 기술과 관련된 핵심 지식 제공, 바이오에너지 기술의 원리와 실제 적용 방안을 이해하고, 환경 친화적 에너지 전환의 기초 역량을 갖춘 인재 양성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산업보건 및 위생 MD</t>
-  </si>
-  <si>
-    <t>산업보건 지식 함양: 근로자의 건강 보호를 위한 보건학, 생리학, 독성학 등의 핵심 이론을 습득, 작업 위험성 평가 및 관리: 화학적, 물리적, 생물학적, 인간공학적 위험 요인 평가 및 관리 능력, 법적·윤리적 준수 능력: 산업보건 관련 법규 및 국제 기준에 대한 이해 및 실무 적용, 실무 중심의 문제 해결 능력 함양: 다양한 산업현장에서 발생할 수 있는 문제에 대한 예방 대책 수립</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이오에너지화공환경 MD</t>
-  </si>
-  <si>
-    <r>
-      <t>화학공학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기반의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>바이오</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에너지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>환경에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전문성을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>함양, 화학공학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기초</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>능력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>문제해결</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>역량을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>향상, 화학공학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>분야의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>다양화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시대적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>변화에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>적응</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>능력을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>발전</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사물인터넷 MD</t>
-  </si>
-  <si>
-    <t>사물인터넷(IoT) 전공은 차세대 연결 기술과 지능형 시스템의 핵심 원리를 탐구하고 응용하는 데 초점을 둔다. 학생들은 데이터 통신, 모바일 프로그래밍, 딥러닝 등 현대 IoT의 필수 기술을 학습하며, 센서 네트워크, 클라우드 컴퓨팅, 데이터 분석 및 자동화의 통합 원리를 이해하게 된다. 이를 통하여 IoT 기술을 활용한 창의적 문제 해결 능력을 배양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신공학 MD</t>
-  </si>
-  <si>
-    <r>
-      <t>통신공학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이론을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기반으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>과학용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전자부품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시스템을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>연구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개발</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시험하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전문성을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>함양, 기술적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>성능을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개선하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전자적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>특성의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>변형과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>응용에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>개발할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>자기성찰역량과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>문제해결역량을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>함양, 통신공학</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>분야의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>다양화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>글로벌화에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대처할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>역량을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>함양</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄소중립 전기에너지 MD</t>
-  </si>
-  <si>
-    <r>
-      <t>탄소중립</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전기에너지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전문지식과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>에너지의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>효율적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>운영</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실무지식을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>갖춘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>창의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>융합형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>양성, 탄소중립</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전기에너지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>분야의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>다양화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>글로벌화에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대처할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>도전역량을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>갖춘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>양성</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드 콘텐츠 MD</t>
-  </si>
-  <si>
-    <t>AI 기술 습득: 학생들은 인공지능과 디자인의 융합을 통해 창의적이고 혁신적인 디자인 솔루션을 개발할 수 있는 능력을 갖춥니다, 창의적 창업 역량 강화: 창의창업스튜디오를 통해 학생들은 자신의 아이디어를 실제 브랜드 콘텐츠 사업으로 전환하는 방법을 배우고, 창업 과정의 모든 단계에서 필요한 실무적 지식과 경험을 쌓습니다. 이를 통해 학생들은 브랜드 콘텐츠 분야에서 창업가로서의 역량을 개발하고, 창의적이고 혁신적인 사업 아이디어를 현실화합니다, 브랜드 가치 창출 및 전달 능력 함양: 시각브랜드디자인 수업을 통해 학생들은 강력한 브랜드 아이덴티티와 시각적 스토리텔링을 통해 효과적인 브랜드 메시지를 전달하는 방법을 배웁니다. 이 과정은 브랜드 콘텐츠 분야에서 소비자와 강력한 연결을 구축하고 브랜드의 가치를 전달하는 데 필수적인 능력을 갖추도록 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI보안 MD</t>
-  </si>
-  <si>
-    <t>인공지능 관련 기초 지식을 바탕으로 인공지능과 보안이 결합되었을 때 나타나는 현상들과 영향들을 분석하여 실무에 적용할 수 있는 인공지능 보안의 전문 인재 양성을 목표로 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공 PR MD</t>
-  </si>
-  <si>
-    <t>행정과 PR에 대한 이론적 지식과 실무 역량을 갖춘 공공PR 전문가 배출, 정부 및 공공기관, 공공PR 전문 영역에서 활약할 수 있는 홍보 전문 능력 함양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내러티브 디자인 MD</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>문화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시장에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>요구되는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>실무형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>양성, 이야기와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>조형</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>매체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>간의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>관계를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이해하고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>바탕으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>각</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>매체에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>부합하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>창의적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>표현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>방식을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>습득함</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한영 언어 융합 MD</t>
-  </si>
-  <si>
-    <t>도전적이고 창의적인 한영 언어 및 문학 전문 인재 양성을 통한 융합 교육 달성, 한국문학과 영미 언어의 능숙성을 겸비한 4차 산업시대의 글로벌 문화 인재 양성, 창의적 문학 감수성과 영미 언어 문화 역량을 지닌 출판 문화산업 전문가 양성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정부 및 공기업 재무회계 전문가 MD</t>
-  </si>
-  <si>
-    <t>공공부분과민간부문에대한 이론적 지식과회계 실무 역량을 갖춘 전문가 배출, 정부,공공기관 및 민간부문 영역에서 활약할 수 있는 회계 전문 능력 함양, 정부,공공기관및민간기업 회계관련 실무 기술 습득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그로스마케터 과정 MD</t>
-  </si>
-  <si>
-    <t>마케팅 도메인 지식 습득을 통한 맥락적 역량을 기반으로 데이터 분석 기반 효율성 및 효과를 산출하는 전문성을 함양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무빅데이터분석 전문가 MD</t>
-  </si>
-  <si>
-    <t>회계, 재무, 데이터에 밝은 융합형 전문가 양성, 재무제표 및 재무정보를 파이썬 등 통계프로그램을 활용하여 분석하고 이를 활용한 경영전략을 마련할 수 있는 능력 배양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸드콘텐츠기획자 MD</t>
-  </si>
-  <si>
-    <t>외식산업 분야의 전문 지식과 실무능력을 기본으로 푸드콘텐츠산업을 이끌 도전적 인재 양성, K-food의 세계화, 푸드테크 시대에 식품 영양·조리, 미디어·홍보 분야의 지식과 실무능력을 갖추고 관련 산업에서 활약할 수 있는 현장형, 글로벌 전문가 배출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식물원학 MD</t>
-  </si>
-  <si>
-    <t>식물원•생태원 조성의 사회적 수요애 부응하는 도전적인 전문가 양성, 환경생태·사회환경과 조화로운 식물원•생태원 조성에 필요한 식물환경조경 융합형 전문가 양성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이오매스 MD</t>
-  </si>
-  <si>
-    <t>바이오매스 신산업을 창출하고 주도할 수 있는 도전적인 리더형 전문인력 양성, 정책, 제도, 기술, 사회 통합적 접급을 위한 융합형 전문인력 양성, 바이오매스의 다양성과 현장의 기술 상황에 효과적으로 대응하는 현장형 전문인력 양성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역관광자원 활성화 MD</t>
-  </si>
-  <si>
-    <t>친환경적 지역 부존자원의 활용과 공간을 관광자원으로 개발할 수 있는 창의적 설계역량 배양, 지역의 문화, 역사, 인프라 요소의 자원을 디지털 자원으로 변화시킬 수 있는 전문 역량 배양, 지역활성화와 지역 소통을 위하여 디지털 자원의 활용 지역경쟁력 제고역량 배양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI 화학공학 MD</t>
-  </si>
-  <si>
-    <t>기계학습 및 인공지능 기법을 이용하여 데이터를 분석할 수 있고, 화학공학 분야에 접목할 수 있는 인재 양성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(화학)반도체 소재 MD</t>
-  </si>
-  <si>
-    <t>반도체 관련 소재 및 공정에 대한 개론적인 지식을 전달하는 한편, 실험 및 전산 모사 실습을 통한 균형 잡힌 전문가 양성을 목표, 반도체의 기본 배경지식, 반도체 산업 및 관련 산업에 사용되는 재료들의 특성에 대한 전문적 인력 양성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(ICT)반도체 부품장비 MD</t>
-  </si>
-  <si>
-    <r>
-      <t>반도체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소재부품장비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소부장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>)/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>산업경쟁력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>강화를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>위해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>산업체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>재직자를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>대상으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>산업체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>기반의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전공트랙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>교육을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>통해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>반도체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>장비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>소자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>회로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>분야의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>전문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>인재</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>양성을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>목표</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(기계)반도체 부품장비 MD</t>
-  </si>
-  <si>
-    <t>반도체 소재부품장비(소부장)/설계 산업경쟁력 강화를 위해 산업체 재직자를 대상으로 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정, 장비, 소자, 회로 및 공정진단 분야의 준문 인재 양성을 목표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(전자)반도체 공정 MD</t>
-  </si>
-  <si>
-    <t>본 소단위 전공은 전자공학전공 4학년들을 대상으로 하며, 특히 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정 분야의 전문 인재 양성을 목표로 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(전기)반도체 부품장비 MD</t>
-  </si>
-  <si>
-    <t>반도체 소재부품장비(소부장)/설계 산업경쟁력 강화를 위해 산업체 재직자를 대상으로 산업체 수요 기반의 전공트랙 교육을 통해 반도체 공정, 장비, 소자, 회로 및 설계 분야의 전문 인재 양성을 목표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(AI융합)반도체 소자 MD</t>
-  </si>
-  <si>
-    <t>(AI융합)반도체 설계 MD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터음악 MD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인용 컴퓨터 음악 제작 시스템을 구축할 수 있다, MIDI 녹음/편집과 가상악기를 활용하여 데모 수준의 음악을 제작할 수 있다, 오디오 녹음/편집과 가상 이펙터를 활용하여 믹싱, 마스터링을 통하여 완성도 높은 음악을 제작할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인공지능과 사회복지 MD</t>
-  </si>
-  <si>
-    <t>인공지능과 빅데이터 처리를 위한 가장 기초언어인 파이썬 프로그램을 배우고, 인공지능 알고리즘을 이해하고,  통계적 자료분석의 원리와 방법에 관한 기초지식을 익히는데 교육목표을 둠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D 프린팅 디자이너 MD</t>
-  </si>
-  <si>
-    <t>디자인을 3D 기반으로 시각화하고 제품으로 구현할 수 있는 디지털 제작 역량 함양,  3D 프린팅 기술의 실무 적용 및 창의적 응용 능력 강화, 디자인 아이디어를 제품화, 시장화할 수 있는 브랜드 기획 및 창업 기초 역량 강화, 융합형 디자이너로서의 창의적 문제해결력과 실무 대응력 배양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니버설디자인 이노베이터 MD</t>
-  </si>
-  <si>
-    <t>유니버설디자인의 이론과 사례에 대한 이해를 바탕으로 포용적 사고를 갖춘 창의적 인재 양성, 융합 프로젝트를 통해 실무 디자인 문제 해결 능력 강화, 디자인 결과물을 사회적 가치와 연계하여 발표 및 실현하는 실천적 리더 육성, 포트폴리오 중심의 산출물 기반 수업을 통해 진로 및 취업 경쟁력 제고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아 교과 수업설계 MD</t>
-  </si>
-  <si>
-    <t>교과에 대한 이론적 이해 심화, 효과적인 수업 설계 역량 배양, 실제적 교수법 적용 능력 강화, 융합적이고 통합적인 사고 함양</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>식품, 품질, 식품안전, 평가, 식품품질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유전체, 육종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반려, 동물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축산, HACCP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명, 연구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인프라, 재난, 방재</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이오, 에너지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산업보건, 위생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사물, 인터넷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄소, 중립, 전기, 에너지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브랜드, 콘텐츠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI, 보안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공, PR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>언어, 융합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정부, 공기업, 재무, 회계, 전문가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그로스마케터, 마케팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무, 빅데이터, 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외식, 푸드, 콘텐츠, K-Food, 푸드테크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경, 생태, 사회환경, 식물원, 생태원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바이오매스, 에너지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역, 문화, 인프라, 친환경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI, 화학공학, 기계학습, 인공지능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체, 소재, 화학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체, ICT, 부품, 장비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체, 부품, 장비, 기계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체, 공정, 전자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체, 부품장비, 소부장, 전기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체, 소자, 소부장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체, 설계, 부품장비, 소부장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터음악, 음악, 오디오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사회복지, 인공지능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자이너, 3D 프린팅, 디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이노베이터, 유니버설, 디자인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아, 교과, 수업설계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소단위전공과정, 마이크로디그리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생명공학연구실습 MD</t>
+    <t>공학 계열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5983,7 +1068,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6021,12 +1106,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6091,7 +1170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6122,9 +1201,6 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6408,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6100"/>
+  <dimension ref="A1:H6026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6431,25 +1507,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -6457,25 +1533,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -6483,25 +1559,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -6509,25 +1585,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -6535,25 +1611,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -6561,25 +1637,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -6587,25 +1663,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -6613,25 +1689,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -6639,25 +1715,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -6665,25 +1741,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -6691,25 +1767,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -6717,25 +1793,25 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -6743,25 +1819,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -6769,25 +1845,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -6795,25 +1871,25 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -6821,25 +1897,25 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -6847,25 +1923,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -6873,25 +1949,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -6899,25 +1975,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -6925,25 +2001,25 @@
         <v>20</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -6951,25 +2027,25 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -6977,25 +2053,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -7003,1381 +2079,1048 @@
         <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D27" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>48</v>
+      <c r="B46" s="8" t="s">
+        <v>165</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>80</v>
+      <c r="C46" s="8" t="s">
+        <v>166</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>146</v>
+      <c r="D46" s="8" t="s">
+        <v>264</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>152</v>
+      <c r="E46" s="8" t="s">
+        <v>241</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="G46" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>165</v>
+      <c r="H46" s="10" t="s">
+        <v>179</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>258</v>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
+        <v>259</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>258</v>
+      <c r="D47" s="8" t="s">
+        <v>264</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>48</v>
+      <c r="E47" s="8" t="s">
+        <v>241</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>75</v>
+      <c r="F47" s="9" t="s">
+        <v>70</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>168</v>
+      <c r="G47" s="4" t="s">
+        <v>164</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H47" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="8" t="s">
-        <v>31</v>
+      <c r="D48" s="8" t="s">
+        <v>264</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>171</v>
+      <c r="E48" s="8" t="s">
+        <v>241</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="F48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>258</v>
+      <c r="D49" s="8" t="s">
+        <v>264</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C42" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>256</v>
+      <c r="F49" s="9" t="s">
+        <v>70</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>48</v>
+      <c r="G49" s="4" t="s">
+        <v>164</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>245</v>
+      <c r="H49" s="10" t="s">
+        <v>179</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>235</v>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="8" t="s">
+        <v>262</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>242</v>
+      <c r="B50" s="8" t="s">
+        <v>175</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="8" t="s">
-        <v>41</v>
+      <c r="C50" s="8" t="s">
+        <v>176</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>243</v>
+      <c r="D50" s="8" t="s">
+        <v>264</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>244</v>
+      <c r="E50" s="8" t="s">
+        <v>241</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>259</v>
+      <c r="F50" s="9" t="s">
+        <v>70</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>48</v>
+      <c r="G50" s="4" t="s">
+        <v>164</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>246</v>
+      <c r="H50" s="10" t="s">
+        <v>179</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>235</v>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="8" t="s">
+        <v>263</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>247</v>
+      <c r="B51" s="8" t="s">
+        <v>177</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D51" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
       <c r="F52"/>
       <c r="G52"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
       <c r="F53"/>
       <c r="G53"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
       <c r="F54"/>
       <c r="G54"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
       <c r="F55"/>
       <c r="G55"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
       <c r="F56"/>
       <c r="G56"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
       <c r="F57"/>
       <c r="G57"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
       <c r="F58"/>
       <c r="G58"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
       <c r="F59"/>
       <c r="G59"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
       <c r="F60"/>
       <c r="G60"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
       <c r="F61"/>
       <c r="G61"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
       <c r="F62"/>
       <c r="G62"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
       <c r="F63"/>
       <c r="G63"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
       <c r="F64"/>
       <c r="G64"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A65" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
       <c r="F65"/>
       <c r="G65"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A66" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
       <c r="F66"/>
       <c r="G66"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A67" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A67"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
       <c r="F67"/>
       <c r="G67"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A68" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
       <c r="F68"/>
       <c r="G68"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A69" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
       <c r="F69"/>
       <c r="G69"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A70" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A70"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
       <c r="F70"/>
       <c r="G70"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A71" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A71"/>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
       <c r="F71"/>
       <c r="G71"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A72"/>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
       <c r="F72"/>
       <c r="G72"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A73" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A73"/>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
       <c r="F73"/>
       <c r="G73"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A74" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A74"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
       <c r="F74"/>
       <c r="G74"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A75" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
       <c r="F75"/>
       <c r="G75"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A76" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
       <c r="F76"/>
       <c r="G76"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A77" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
       <c r="F77"/>
       <c r="G77"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A78" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
       <c r="F78"/>
       <c r="G78"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A79" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D79" s="8"/>
-      <c r="E79" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
       <c r="F79"/>
       <c r="G79"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A80" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D80" s="8"/>
-      <c r="E80" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
       <c r="F80"/>
       <c r="G80"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A81" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
       <c r="F81"/>
       <c r="G81"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A82" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
       <c r="F82"/>
       <c r="G82"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A83" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
       <c r="F83"/>
       <c r="G83"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A84" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
       <c r="F84"/>
       <c r="G84"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A85" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
       <c r="F85"/>
       <c r="G85"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A86" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
       <c r="F86"/>
       <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A87" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
       <c r="F87"/>
       <c r="G87"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A88" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="7" t="s">
-        <v>376</v>
-      </c>
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
       <c r="F88"/>
       <c r="G88"/>
     </row>
@@ -55884,598 +50627,6 @@
       <c r="D6026"/>
       <c r="F6026"/>
       <c r="G6026"/>
-    </row>
-    <row r="6027" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6027"/>
-      <c r="B6027"/>
-      <c r="C6027"/>
-      <c r="D6027"/>
-      <c r="F6027"/>
-      <c r="G6027"/>
-    </row>
-    <row r="6028" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6028"/>
-      <c r="B6028"/>
-      <c r="C6028"/>
-      <c r="D6028"/>
-      <c r="F6028"/>
-      <c r="G6028"/>
-    </row>
-    <row r="6029" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6029"/>
-      <c r="B6029"/>
-      <c r="C6029"/>
-      <c r="D6029"/>
-      <c r="F6029"/>
-      <c r="G6029"/>
-    </row>
-    <row r="6030" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6030"/>
-      <c r="B6030"/>
-      <c r="C6030"/>
-      <c r="D6030"/>
-      <c r="F6030"/>
-      <c r="G6030"/>
-    </row>
-    <row r="6031" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6031"/>
-      <c r="B6031"/>
-      <c r="C6031"/>
-      <c r="D6031"/>
-      <c r="F6031"/>
-      <c r="G6031"/>
-    </row>
-    <row r="6032" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6032"/>
-      <c r="B6032"/>
-      <c r="C6032"/>
-      <c r="D6032"/>
-      <c r="F6032"/>
-      <c r="G6032"/>
-    </row>
-    <row r="6033" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6033"/>
-      <c r="B6033"/>
-      <c r="C6033"/>
-      <c r="D6033"/>
-      <c r="F6033"/>
-      <c r="G6033"/>
-    </row>
-    <row r="6034" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6034"/>
-      <c r="B6034"/>
-      <c r="C6034"/>
-      <c r="D6034"/>
-      <c r="F6034"/>
-      <c r="G6034"/>
-    </row>
-    <row r="6035" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6035"/>
-      <c r="B6035"/>
-      <c r="C6035"/>
-      <c r="D6035"/>
-      <c r="F6035"/>
-      <c r="G6035"/>
-    </row>
-    <row r="6036" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6036"/>
-      <c r="B6036"/>
-      <c r="C6036"/>
-      <c r="D6036"/>
-      <c r="F6036"/>
-      <c r="G6036"/>
-    </row>
-    <row r="6037" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6037"/>
-      <c r="B6037"/>
-      <c r="C6037"/>
-      <c r="D6037"/>
-      <c r="F6037"/>
-      <c r="G6037"/>
-    </row>
-    <row r="6038" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6038"/>
-      <c r="B6038"/>
-      <c r="C6038"/>
-      <c r="D6038"/>
-      <c r="F6038"/>
-      <c r="G6038"/>
-    </row>
-    <row r="6039" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6039"/>
-      <c r="B6039"/>
-      <c r="C6039"/>
-      <c r="D6039"/>
-      <c r="F6039"/>
-      <c r="G6039"/>
-    </row>
-    <row r="6040" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6040"/>
-      <c r="B6040"/>
-      <c r="C6040"/>
-      <c r="D6040"/>
-      <c r="F6040"/>
-      <c r="G6040"/>
-    </row>
-    <row r="6041" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6041"/>
-      <c r="B6041"/>
-      <c r="C6041"/>
-      <c r="D6041"/>
-      <c r="F6041"/>
-      <c r="G6041"/>
-    </row>
-    <row r="6042" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6042"/>
-      <c r="B6042"/>
-      <c r="C6042"/>
-      <c r="D6042"/>
-      <c r="F6042"/>
-      <c r="G6042"/>
-    </row>
-    <row r="6043" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6043"/>
-      <c r="B6043"/>
-      <c r="C6043"/>
-      <c r="D6043"/>
-      <c r="F6043"/>
-      <c r="G6043"/>
-    </row>
-    <row r="6044" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6044"/>
-      <c r="B6044"/>
-      <c r="C6044"/>
-      <c r="D6044"/>
-      <c r="F6044"/>
-      <c r="G6044"/>
-    </row>
-    <row r="6045" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6045"/>
-      <c r="B6045"/>
-      <c r="C6045"/>
-      <c r="D6045"/>
-      <c r="F6045"/>
-      <c r="G6045"/>
-    </row>
-    <row r="6046" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6046"/>
-      <c r="B6046"/>
-      <c r="C6046"/>
-      <c r="D6046"/>
-      <c r="F6046"/>
-      <c r="G6046"/>
-    </row>
-    <row r="6047" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6047"/>
-      <c r="B6047"/>
-      <c r="C6047"/>
-      <c r="D6047"/>
-      <c r="F6047"/>
-      <c r="G6047"/>
-    </row>
-    <row r="6048" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6048"/>
-      <c r="B6048"/>
-      <c r="C6048"/>
-      <c r="D6048"/>
-      <c r="F6048"/>
-      <c r="G6048"/>
-    </row>
-    <row r="6049" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6049"/>
-      <c r="B6049"/>
-      <c r="C6049"/>
-      <c r="D6049"/>
-      <c r="F6049"/>
-      <c r="G6049"/>
-    </row>
-    <row r="6050" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6050"/>
-      <c r="B6050"/>
-      <c r="C6050"/>
-      <c r="D6050"/>
-      <c r="F6050"/>
-      <c r="G6050"/>
-    </row>
-    <row r="6051" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6051"/>
-      <c r="B6051"/>
-      <c r="C6051"/>
-      <c r="D6051"/>
-      <c r="F6051"/>
-      <c r="G6051"/>
-    </row>
-    <row r="6052" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6052"/>
-      <c r="B6052"/>
-      <c r="C6052"/>
-      <c r="D6052"/>
-      <c r="F6052"/>
-      <c r="G6052"/>
-    </row>
-    <row r="6053" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6053"/>
-      <c r="B6053"/>
-      <c r="C6053"/>
-      <c r="D6053"/>
-      <c r="F6053"/>
-      <c r="G6053"/>
-    </row>
-    <row r="6054" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6054"/>
-      <c r="B6054"/>
-      <c r="C6054"/>
-      <c r="D6054"/>
-      <c r="F6054"/>
-      <c r="G6054"/>
-    </row>
-    <row r="6055" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6055"/>
-      <c r="B6055"/>
-      <c r="C6055"/>
-      <c r="D6055"/>
-      <c r="F6055"/>
-      <c r="G6055"/>
-    </row>
-    <row r="6056" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6056"/>
-      <c r="B6056"/>
-      <c r="C6056"/>
-      <c r="D6056"/>
-      <c r="F6056"/>
-      <c r="G6056"/>
-    </row>
-    <row r="6057" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6057"/>
-      <c r="B6057"/>
-      <c r="C6057"/>
-      <c r="D6057"/>
-      <c r="F6057"/>
-      <c r="G6057"/>
-    </row>
-    <row r="6058" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6058"/>
-      <c r="B6058"/>
-      <c r="C6058"/>
-      <c r="D6058"/>
-      <c r="F6058"/>
-      <c r="G6058"/>
-    </row>
-    <row r="6059" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6059"/>
-      <c r="B6059"/>
-      <c r="C6059"/>
-      <c r="D6059"/>
-      <c r="F6059"/>
-      <c r="G6059"/>
-    </row>
-    <row r="6060" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6060"/>
-      <c r="B6060"/>
-      <c r="C6060"/>
-      <c r="D6060"/>
-      <c r="F6060"/>
-      <c r="G6060"/>
-    </row>
-    <row r="6061" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6061"/>
-      <c r="B6061"/>
-      <c r="C6061"/>
-      <c r="D6061"/>
-      <c r="F6061"/>
-      <c r="G6061"/>
-    </row>
-    <row r="6062" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6062"/>
-      <c r="B6062"/>
-      <c r="C6062"/>
-      <c r="D6062"/>
-      <c r="F6062"/>
-      <c r="G6062"/>
-    </row>
-    <row r="6063" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6063"/>
-      <c r="B6063"/>
-      <c r="C6063"/>
-      <c r="D6063"/>
-      <c r="F6063"/>
-      <c r="G6063"/>
-    </row>
-    <row r="6064" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6064"/>
-      <c r="B6064"/>
-      <c r="C6064"/>
-      <c r="D6064"/>
-      <c r="F6064"/>
-      <c r="G6064"/>
-    </row>
-    <row r="6065" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6065"/>
-      <c r="B6065"/>
-      <c r="C6065"/>
-      <c r="D6065"/>
-      <c r="F6065"/>
-      <c r="G6065"/>
-    </row>
-    <row r="6066" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6066"/>
-      <c r="B6066"/>
-      <c r="C6066"/>
-      <c r="D6066"/>
-      <c r="F6066"/>
-      <c r="G6066"/>
-    </row>
-    <row r="6067" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6067"/>
-      <c r="B6067"/>
-      <c r="C6067"/>
-      <c r="D6067"/>
-      <c r="F6067"/>
-      <c r="G6067"/>
-    </row>
-    <row r="6068" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6068"/>
-      <c r="B6068"/>
-      <c r="C6068"/>
-      <c r="D6068"/>
-      <c r="F6068"/>
-      <c r="G6068"/>
-    </row>
-    <row r="6069" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6069"/>
-      <c r="B6069"/>
-      <c r="C6069"/>
-      <c r="D6069"/>
-      <c r="F6069"/>
-      <c r="G6069"/>
-    </row>
-    <row r="6070" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6070"/>
-      <c r="B6070"/>
-      <c r="C6070"/>
-      <c r="D6070"/>
-      <c r="F6070"/>
-      <c r="G6070"/>
-    </row>
-    <row r="6071" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6071"/>
-      <c r="B6071"/>
-      <c r="C6071"/>
-      <c r="D6071"/>
-      <c r="F6071"/>
-      <c r="G6071"/>
-    </row>
-    <row r="6072" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6072"/>
-      <c r="B6072"/>
-      <c r="C6072"/>
-      <c r="D6072"/>
-      <c r="F6072"/>
-      <c r="G6072"/>
-    </row>
-    <row r="6073" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6073"/>
-      <c r="B6073"/>
-      <c r="C6073"/>
-      <c r="D6073"/>
-      <c r="F6073"/>
-      <c r="G6073"/>
-    </row>
-    <row r="6074" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6074"/>
-      <c r="B6074"/>
-      <c r="C6074"/>
-      <c r="D6074"/>
-      <c r="F6074"/>
-      <c r="G6074"/>
-    </row>
-    <row r="6075" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6075"/>
-      <c r="B6075"/>
-      <c r="C6075"/>
-      <c r="D6075"/>
-      <c r="F6075"/>
-      <c r="G6075"/>
-    </row>
-    <row r="6076" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6076"/>
-      <c r="B6076"/>
-      <c r="C6076"/>
-      <c r="D6076"/>
-      <c r="F6076"/>
-      <c r="G6076"/>
-    </row>
-    <row r="6077" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6077"/>
-      <c r="B6077"/>
-      <c r="C6077"/>
-      <c r="D6077"/>
-      <c r="F6077"/>
-      <c r="G6077"/>
-    </row>
-    <row r="6078" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6078"/>
-      <c r="B6078"/>
-      <c r="C6078"/>
-      <c r="D6078"/>
-      <c r="F6078"/>
-      <c r="G6078"/>
-    </row>
-    <row r="6079" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6079"/>
-      <c r="B6079"/>
-      <c r="C6079"/>
-      <c r="D6079"/>
-      <c r="F6079"/>
-      <c r="G6079"/>
-    </row>
-    <row r="6080" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6080"/>
-      <c r="B6080"/>
-      <c r="C6080"/>
-      <c r="D6080"/>
-      <c r="F6080"/>
-      <c r="G6080"/>
-    </row>
-    <row r="6081" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6081"/>
-      <c r="B6081"/>
-      <c r="C6081"/>
-      <c r="D6081"/>
-      <c r="F6081"/>
-      <c r="G6081"/>
-    </row>
-    <row r="6082" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6082"/>
-      <c r="B6082"/>
-      <c r="C6082"/>
-      <c r="D6082"/>
-      <c r="F6082"/>
-      <c r="G6082"/>
-    </row>
-    <row r="6083" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6083"/>
-      <c r="B6083"/>
-      <c r="C6083"/>
-      <c r="D6083"/>
-      <c r="F6083"/>
-      <c r="G6083"/>
-    </row>
-    <row r="6084" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6084"/>
-      <c r="B6084"/>
-      <c r="C6084"/>
-      <c r="D6084"/>
-      <c r="F6084"/>
-      <c r="G6084"/>
-    </row>
-    <row r="6085" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6085"/>
-      <c r="B6085"/>
-      <c r="C6085"/>
-      <c r="D6085"/>
-      <c r="F6085"/>
-      <c r="G6085"/>
-    </row>
-    <row r="6086" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6086"/>
-      <c r="B6086"/>
-      <c r="C6086"/>
-      <c r="D6086"/>
-      <c r="F6086"/>
-      <c r="G6086"/>
-    </row>
-    <row r="6087" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6087"/>
-      <c r="B6087"/>
-      <c r="C6087"/>
-      <c r="D6087"/>
-      <c r="F6087"/>
-      <c r="G6087"/>
-    </row>
-    <row r="6088" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6088"/>
-      <c r="B6088"/>
-      <c r="C6088"/>
-      <c r="D6088"/>
-      <c r="F6088"/>
-      <c r="G6088"/>
-    </row>
-    <row r="6089" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6089"/>
-      <c r="B6089"/>
-      <c r="C6089"/>
-      <c r="D6089"/>
-      <c r="F6089"/>
-      <c r="G6089"/>
-    </row>
-    <row r="6090" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6090"/>
-      <c r="B6090"/>
-      <c r="C6090"/>
-      <c r="D6090"/>
-      <c r="F6090"/>
-      <c r="G6090"/>
-    </row>
-    <row r="6091" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6091"/>
-      <c r="B6091"/>
-      <c r="C6091"/>
-      <c r="D6091"/>
-      <c r="F6091"/>
-      <c r="G6091"/>
-    </row>
-    <row r="6092" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6092"/>
-      <c r="B6092"/>
-      <c r="C6092"/>
-      <c r="D6092"/>
-      <c r="F6092"/>
-      <c r="G6092"/>
-    </row>
-    <row r="6093" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6093"/>
-      <c r="B6093"/>
-      <c r="C6093"/>
-      <c r="D6093"/>
-      <c r="F6093"/>
-      <c r="G6093"/>
-    </row>
-    <row r="6094" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6094"/>
-      <c r="B6094"/>
-      <c r="C6094"/>
-      <c r="D6094"/>
-      <c r="F6094"/>
-      <c r="G6094"/>
-    </row>
-    <row r="6095" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6095"/>
-      <c r="B6095"/>
-      <c r="C6095"/>
-      <c r="D6095"/>
-      <c r="F6095"/>
-      <c r="G6095"/>
-    </row>
-    <row r="6096" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6096"/>
-      <c r="B6096"/>
-      <c r="C6096"/>
-      <c r="D6096"/>
-      <c r="F6096"/>
-      <c r="G6096"/>
-    </row>
-    <row r="6097" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6097"/>
-      <c r="B6097"/>
-      <c r="C6097"/>
-      <c r="D6097"/>
-      <c r="F6097"/>
-      <c r="G6097"/>
-    </row>
-    <row r="6098" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6098"/>
-      <c r="B6098"/>
-      <c r="C6098"/>
-      <c r="D6098"/>
-      <c r="F6098"/>
-      <c r="G6098"/>
-    </row>
-    <row r="6099" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6099"/>
-      <c r="B6099"/>
-      <c r="C6099"/>
-      <c r="D6099"/>
-      <c r="F6099"/>
-      <c r="G6099"/>
-    </row>
-    <row r="6100" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6100"/>
-      <c r="B6100"/>
-      <c r="C6100"/>
-      <c r="D6100"/>
-      <c r="F6100"/>
-      <c r="G6100"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/majors_info.xlsx
+++ b/data/majors_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7FF580-62B9-415A-B490-6C81AA9AD2C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8AB679-BF90-4461-8D72-005D29E55740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>전기공학전공</t>
-  </si>
-  <si>
-    <t>건축학전공</t>
   </si>
   <si>
     <t>건축공학전공</t>
@@ -1063,6 +1060,10 @@
     <t>공학 계열</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>건축학전공(5년제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1486,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6026"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1507,25 +1508,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -1533,25 +1534,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -1559,25 +1560,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -1585,25 +1586,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
@@ -1611,25 +1612,25 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
@@ -1637,25 +1638,25 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
@@ -1663,25 +1664,25 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
@@ -1689,25 +1690,25 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -1715,25 +1716,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>99</v>
-      </c>
       <c r="D9" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
@@ -1741,25 +1742,25 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
@@ -1767,25 +1768,25 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
@@ -1793,25 +1794,25 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="D12" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
@@ -1819,25 +1820,25 @@
         <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>112</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
@@ -1845,25 +1846,25 @@
         <v>14</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
@@ -1871,25 +1872,25 @@
         <v>15</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="D15" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
@@ -1897,25 +1898,25 @@
         <v>16</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>123</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
@@ -1923,25 +1924,25 @@
         <v>17</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>126</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
@@ -1949,25 +1950,25 @@
         <v>18</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
@@ -1975,25 +1976,25 @@
         <v>19</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>130</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
@@ -2001,25 +2002,25 @@
         <v>20</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
@@ -2027,25 +2028,25 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="D21" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
@@ -2053,25 +2054,25 @@
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
@@ -2079,51 +2080,51 @@
         <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="D23" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
@@ -2131,25 +2132,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
@@ -2157,25 +2158,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
@@ -2183,25 +2184,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
@@ -2209,25 +2210,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>154</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
@@ -2235,597 +2236,597 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>268</v>
+      <c r="H30" s="10" t="s">
+        <v>160</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="8" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>268</v>
+      <c r="C31" s="8" t="s">
+        <v>162</v>
       </c>
-      <c r="E30" s="8" t="s">
-        <v>37</v>
+      <c r="D31" s="8" t="s">
+        <v>267</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="E31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>157</v>
+      <c r="G31" s="4" t="s">
+        <v>156</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="8" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>160</v>
+      <c r="B32" s="8" t="s">
+        <v>183</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C32" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>268</v>
+      <c r="H45" s="10" t="s">
+        <v>178</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>37</v>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="8" t="s">
+        <v>257</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>65</v>
+      <c r="B46" s="8" t="s">
+        <v>164</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>157</v>
+      <c r="C46" s="8" t="s">
+        <v>165</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>162</v>
+      <c r="D46" s="8" t="s">
+        <v>263</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H44" s="10" t="s">
+      <c r="E46" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="8" t="s">
-        <v>257</v>
+      <c r="F46" s="9" t="s">
+        <v>69</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>167</v>
+      <c r="G46" s="4" t="s">
+        <v>163</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="H46" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>264</v>
+      <c r="C47" s="8" t="s">
+        <v>169</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>241</v>
+      <c r="D47" s="8" t="s">
+        <v>263</v>
       </c>
-      <c r="F45" s="9" t="s">
-        <v>70</v>
+      <c r="E47" s="8" t="s">
+        <v>240</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>164</v>
+      <c r="F47" s="9" t="s">
+        <v>69</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>179</v>
+      <c r="G47" s="4" t="s">
+        <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="8" t="s">
-        <v>258</v>
+      <c r="H47" s="10" t="s">
+        <v>178</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="8" t="s">
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>264</v>
+      <c r="C48" s="8" t="s">
+        <v>171</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>241</v>
+      <c r="D48" s="8" t="s">
+        <v>263</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>70</v>
+      <c r="E48" s="8" t="s">
+        <v>240</v>
       </c>
-      <c r="G47" s="4" t="s">
-        <v>164</v>
+      <c r="F48" s="9" t="s">
+        <v>69</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>179</v>
+      <c r="G48" s="4" t="s">
+        <v>163</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="8" t="s">
+      <c r="H48" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="8" t="s">
-        <v>264</v>
+      <c r="C49" s="8" t="s">
+        <v>173</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>241</v>
+      <c r="D49" s="8" t="s">
+        <v>263</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>70</v>
+      <c r="E49" s="8" t="s">
+        <v>240</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>164</v>
+      <c r="F49" s="9" t="s">
+        <v>69</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>179</v>
+      <c r="G49" s="4" t="s">
+        <v>163</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="8" t="s">
+      <c r="H49" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>264</v>
+      <c r="C50" s="8" t="s">
+        <v>175</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>241</v>
+      <c r="D50" s="8" t="s">
+        <v>263</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>70</v>
+      <c r="E50" s="8" t="s">
+        <v>240</v>
       </c>
-      <c r="G49" s="4" t="s">
-        <v>164</v>
+      <c r="F50" s="9" t="s">
+        <v>69</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>179</v>
+      <c r="G50" s="4" t="s">
+        <v>163</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="8" t="s">
+      <c r="H50" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="B51" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>264</v>
+      <c r="C51" s="8" t="s">
+        <v>177</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>264</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">

--- a/data/majors_info.xlsx
+++ b/data/majors_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seung\chatbot_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8AB679-BF90-4461-8D72-005D29E55740}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5501C4-32F7-41F2-8B2D-7062D3A9FCD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,10 +1009,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>정보보안전공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스마트헬스케어융합전공</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1062,6 +1058,10 @@
   </si>
   <si>
     <t>건축학전공(5년제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보보안전공(평캠)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1487,8 +1487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1540,7 +1540,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>36</v>
@@ -1566,7 +1566,7 @@
         <v>84</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>36</v>
@@ -1592,7 +1592,7 @@
         <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>36</v>
@@ -1618,7 +1618,7 @@
         <v>83</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>36</v>
@@ -1644,7 +1644,7 @@
         <v>82</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>36</v>
@@ -1670,7 +1670,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>36</v>
@@ -1696,7 +1696,7 @@
         <v>95</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>36</v>
@@ -1722,7 +1722,7 @@
         <v>98</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>36</v>
@@ -1748,7 +1748,7 @@
         <v>100</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>36</v>
@@ -1774,7 +1774,7 @@
         <v>103</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>36</v>
@@ -1800,7 +1800,7 @@
         <v>108</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>36</v>
@@ -1826,7 +1826,7 @@
         <v>111</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>36</v>
@@ -1852,7 +1852,7 @@
         <v>115</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>36</v>
@@ -1878,7 +1878,7 @@
         <v>118</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>36</v>
@@ -1904,7 +1904,7 @@
         <v>122</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>36</v>
@@ -1930,7 +1930,7 @@
         <v>125</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>36</v>
@@ -1956,7 +1956,7 @@
         <v>132</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>36</v>
@@ -1982,7 +1982,7 @@
         <v>129</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>36</v>
@@ -2008,7 +2008,7 @@
         <v>72</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>36</v>
@@ -2034,7 +2034,7 @@
         <v>198</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>36</v>
@@ -2060,7 +2060,7 @@
         <v>139</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>36</v>
@@ -2086,7 +2086,7 @@
         <v>138</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>36</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="8" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>201</v>
@@ -2112,7 +2112,7 @@
         <v>203</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>36</v>
@@ -2138,7 +2138,7 @@
         <v>142</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>36</v>
@@ -2164,7 +2164,7 @@
         <v>146</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>36</v>
@@ -2190,7 +2190,7 @@
         <v>149</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>36</v>
@@ -2216,7 +2216,7 @@
         <v>153</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>36</v>
@@ -2242,7 +2242,7 @@
         <v>155</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>36</v>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>157</v>
@@ -2268,7 +2268,7 @@
         <v>158</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>36</v>
@@ -2294,7 +2294,7 @@
         <v>162</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>36</v>
@@ -2320,7 +2320,7 @@
         <v>184</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>36</v>
@@ -2346,7 +2346,7 @@
         <v>181</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>36</v>
@@ -2372,7 +2372,7 @@
         <v>187</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>36</v>
@@ -2398,7 +2398,7 @@
         <v>73</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>36</v>
@@ -2424,7 +2424,7 @@
         <v>192</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>36</v>
@@ -2450,7 +2450,7 @@
         <v>216</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>36</v>
@@ -2476,7 +2476,7 @@
         <v>218</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>36</v>
@@ -2502,7 +2502,7 @@
         <v>220</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>36</v>
@@ -2528,7 +2528,7 @@
         <v>222</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>36</v>
@@ -2554,7 +2554,7 @@
         <v>225</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>36</v>
@@ -2580,7 +2580,7 @@
         <v>229</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>36</v>
@@ -2606,7 +2606,7 @@
         <v>232</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>36</v>
@@ -2632,7 +2632,7 @@
         <v>238</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>36</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>166</v>
@@ -2658,7 +2658,7 @@
         <v>167</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>240</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>164</v>
@@ -2684,7 +2684,7 @@
         <v>165</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>240</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>168</v>
@@ -2710,7 +2710,7 @@
         <v>169</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>240</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>170</v>
@@ -2736,7 +2736,7 @@
         <v>171</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>240</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>172</v>
@@ -2762,7 +2762,7 @@
         <v>173</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>240</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>174</v>
@@ -2788,7 +2788,7 @@
         <v>175</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>240</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>176</v>
@@ -2814,7 +2814,7 @@
         <v>177</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>240</v>
